--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E60300-1767-1442-B3EF-8CC39F105C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CE7814-C2A1-7C48-8893-4187A635899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59880" yWindow="4900" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="592">
   <si>
     <t>Epoch</t>
   </si>
@@ -1850,6 +1850,12 @@
   </si>
   <si>
     <t>enrollment</t>
+  </si>
+  <si>
+    <t>Fix typos</t>
+  </si>
+  <si>
+    <t>Other=Fix typographical errors</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2017,6 +2023,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4831,94 +4843,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" style="7" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="33" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="D4" t="s">
-        <v>584</v>
-      </c>
-      <c r="E4" t="s">
-        <v>585</v>
-      </c>
-      <c r="F4" t="s">
-        <v>586</v>
-      </c>
+      <c r="D5" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CE7814-C2A1-7C48-8893-4187A635899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C2C85-D673-2741-B471-DABCDFD044CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59880" yWindow="4900" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="59880" yWindow="4900" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="593">
   <si>
     <t>Epoch</t>
   </si>
@@ -1792,15 +1792,9 @@
     <t>SCOPE1</t>
   </si>
   <si>
-    <t>region:asia</t>
-  </si>
-  <si>
     <t>scopes</t>
   </si>
   <si>
-    <t>country = GBR, country=FRA, region=ASIA, country=USA</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -1840,15 +1834,6 @@
     <t>Investigator/Site Feedback</t>
   </si>
   <si>
-    <t>Global=31%</t>
-  </si>
-  <si>
-    <t>Europe=15, Asia=20%</t>
-  </si>
-  <si>
-    <t>Global=65%</t>
-  </si>
-  <si>
     <t>enrollment</t>
   </si>
   <si>
@@ -1856,6 +1841,24 @@
   </si>
   <si>
     <t>Other=Fix typographical errors</t>
+  </si>
+  <si>
+    <t>Global: 65%</t>
+  </si>
+  <si>
+    <t>Region: Europe=15, Country: USA=20%</t>
+  </si>
+  <si>
+    <t>Global:31%</t>
+  </si>
+  <si>
+    <t>Region: Europe=0</t>
+  </si>
+  <si>
+    <t>country : GBR, country:FRA, region:ASIA, country :USA</t>
+  </si>
+  <si>
+    <t>region=asia</t>
   </si>
 </sst>
 </file>
@@ -2346,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2492,7 +2495,7 @@
         <v>558</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2515,7 +2518,7 @@
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2561,7 +2564,7 @@
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -4845,8 +4848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4855,27 +4858,28 @@
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="6" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>577</v>
-      </c>
       <c r="F1" s="33" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G1" s="11"/>
     </row>
@@ -4884,17 +4888,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -4903,17 +4907,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -4922,19 +4926,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -4943,16 +4947,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C2C85-D673-2741-B471-DABCDFD044CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9818FB2-4FB4-0C4C-98D6-2EEC94AB311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59880" yWindow="4900" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="59880" yWindow="4900" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2349,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4846,10 +4846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4960,15 +4960,6 @@
         <v>590</v>
       </c>
       <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9818FB2-4FB4-0C4C-98D6-2EEC94AB311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB66A6B4-A34D-EA40-84F9-87AF1D9B52FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59880" yWindow="4900" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="59880" yWindow="4900" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="597">
   <si>
     <t>Epoch</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1859,6 +1856,21 @@
   </si>
   <si>
     <t>region=asia</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1963,9 +1975,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2015,23 +2024,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2359,212 +2368,212 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="26" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="25" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="22" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" t="s">
         <v>560</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>561</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>566</v>
+      </c>
+      <c r="F17" s="26">
+        <v>44927</v>
+      </c>
+      <c r="G17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D18" t="s">
+        <v>565</v>
+      </c>
+      <c r="E18" t="s">
+        <v>567</v>
+      </c>
+      <c r="F18" s="26">
+        <v>44927</v>
+      </c>
+      <c r="G18" t="s">
         <v>562</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E19" t="s">
         <v>567</v>
       </c>
-      <c r="F17" s="27">
-        <v>44927</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F19" s="26">
+        <v>44958</v>
+      </c>
+      <c r="G19" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C18" t="s">
-        <v>565</v>
-      </c>
-      <c r="D18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E18" t="s">
-        <v>568</v>
-      </c>
-      <c r="F18" s="27">
-        <v>44927</v>
-      </c>
-      <c r="G18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C19" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" t="s">
-        <v>566</v>
-      </c>
-      <c r="E19" t="s">
-        <v>568</v>
-      </c>
-      <c r="F19" s="27">
-        <v>44958</v>
-      </c>
-      <c r="G19" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -2666,407 +2675,564 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3093,91 +3259,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>170</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3206,65 +3372,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3296,138 +3462,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3453,105 +3619,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3570,1238 +3736,1238 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="C106" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B124" s="23"/>
+      <c r="C124" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="C128" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>551</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>551</v>
+      <c r="A134" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>551</v>
+      <c r="A135" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>551</v>
+      <c r="A136" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>551</v>
+      <c r="A137" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>551</v>
+      <c r="A138" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4825,18 +4991,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4848,7 +5014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4863,103 +5029,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1" s="11"/>
+      <c r="F1" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="B2" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="G3" s="11"/>
+      <c r="B3" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4984,22 +5150,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5014,7 +5180,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -5034,7 +5200,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -5064,116 +5230,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>223</v>
+      <c r="A12" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5193,16 +5359,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5210,16 +5376,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5236,16 +5402,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5269,20 +5435,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5290,16 +5456,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5310,17 +5476,17 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5343,14 +5509,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5358,10 +5524,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5369,10 +5535,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5380,10 +5546,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5391,10 +5557,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5423,13 +5589,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5438,22 +5604,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5473,13 +5639,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5499,9 +5665,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5521,9 +5687,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5543,9 +5709,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5565,32 +5731,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5604,14 +5770,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>222</v>
+      <c r="C9" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5693,17 +5859,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5711,7 +5877,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5719,13 +5885,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
         <v>284</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5753,7 +5919,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -5767,7 +5933,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -5781,7 +5947,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -5795,7 +5961,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -5809,7 +5975,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB66A6B4-A34D-EA40-84F9-87AF1D9B52FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC33F84-0B13-E044-B14E-5C220E34726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59880" yWindow="4900" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -207,9 +207,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1871,6 +1865,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -2034,10 +2034,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2374,10 +2374,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2401,7 +2401,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2409,68 +2409,68 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2478,102 +2478,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>557</v>
-      </c>
       <c r="G16" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" t="s">
         <v>558</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>559</v>
       </c>
-      <c r="C17" t="s">
-        <v>560</v>
-      </c>
-      <c r="D17" t="s">
-        <v>561</v>
-      </c>
       <c r="E17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" t="s">
         <v>563</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" t="s">
-        <v>564</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>565</v>
-      </c>
-      <c r="E18" t="s">
-        <v>567</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" t="s">
+        <v>562</v>
+      </c>
+      <c r="D19" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C19" t="s">
-        <v>564</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>565</v>
-      </c>
-      <c r="E19" t="s">
-        <v>567</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -2600,72 +2600,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2697,85 +2697,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2784,16 +2784,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2802,16 +2802,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2820,16 +2820,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2838,16 +2838,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2856,16 +2856,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2874,16 +2874,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2892,16 +2892,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2910,16 +2910,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2928,16 +2928,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2946,16 +2946,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3260,90 +3260,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3372,65 +3372,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>191</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3463,137 +3463,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3620,104 +3620,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3744,16 +3744,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3762,1212 +3762,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4991,18 +4991,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5030,22 +5030,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>574</v>
-      </c>
       <c r="F1" s="28" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5054,17 +5054,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>576</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5073,17 +5073,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5092,19 +5092,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>582</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5113,17 +5113,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5136,8 +5136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5166,7 +5166,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5180,33 +5180,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -5231,10 +5231,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5242,10 +5242,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5255,41 +5255,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5300,7 +5300,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5311,7 +5311,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5359,16 +5359,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5376,16 +5376,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5402,16 +5402,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5436,19 +5436,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5456,16 +5456,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5476,13 +5476,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5510,13 +5510,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5524,10 +5524,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5535,10 +5535,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5546,10 +5546,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5557,10 +5557,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5590,10 +5590,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5614,10 +5614,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5640,10 +5640,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5734,29 +5734,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5777,7 +5777,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5788,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -5860,16 +5860,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>279</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5877,7 +5877,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5885,13 +5885,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5919,72 +5919,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC33F84-0B13-E044-B14E-5C220E34726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE82F25-D177-BE42-8E95-2191CC700124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId6"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId7"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="634">
   <si>
     <t>Epoch</t>
   </si>
@@ -234,34 +235,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1872,12 +1855,141 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1921,6 +2033,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1954,7 +2072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2034,14 +2152,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2374,10 +2494,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2414,63 +2534,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2478,102 +2598,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C17" t="s">
+        <v>552</v>
+      </c>
+      <c r="D17" t="s">
+        <v>553</v>
+      </c>
+      <c r="E17" t="s">
         <v>558</v>
-      </c>
-      <c r="D17" t="s">
-        <v>559</v>
-      </c>
-      <c r="E17" t="s">
-        <v>564</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D18" t="s">
         <v>557</v>
       </c>
-      <c r="C18" t="s">
-        <v>562</v>
-      </c>
-      <c r="D18" t="s">
-        <v>563</v>
-      </c>
       <c r="E18" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="s">
+        <v>556</v>
+      </c>
+      <c r="D19" t="s">
         <v>557</v>
       </c>
-      <c r="C19" t="s">
-        <v>562</v>
-      </c>
-      <c r="D19" t="s">
-        <v>563</v>
-      </c>
       <c r="E19" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -2582,6 +2702,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2600,72 +2782,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2697,85 +2879,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2784,16 +2966,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2802,16 +2984,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2820,16 +3002,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2838,16 +3020,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2856,16 +3038,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2874,16 +3056,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2892,16 +3074,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2910,16 +3092,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2928,16 +3110,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2946,16 +3128,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3240,7 +3422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3260,90 +3442,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3372,65 +3554,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3443,7 +3625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3463,137 +3645,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3620,104 +3802,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3726,7 +3908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3744,16 +3926,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3762,1212 +3944,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4976,7 +5158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4991,18 +5173,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5030,22 +5212,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5054,17 +5236,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5073,17 +5255,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5092,19 +5274,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>580</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>586</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5113,17 +5295,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5136,7 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5180,13 +5362,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5200,13 +5382,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5231,10 +5413,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5242,10 +5424,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5255,41 +5437,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5300,7 +5482,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5311,7 +5493,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5319,10 +5501,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5330,7 +5512,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5339,7 +5521,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5359,16 +5541,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5376,16 +5558,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5402,16 +5584,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5436,19 +5618,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5456,16 +5638,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5476,13 +5658,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5510,13 +5692,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5524,10 +5706,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5535,10 +5717,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5546,10 +5728,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5557,10 +5739,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5590,10 +5772,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5614,10 +5796,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5640,10 +5822,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5734,29 +5916,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5777,7 +5959,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5860,16 +6042,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5877,7 +6059,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5885,13 +6067,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5904,87 +6086,212 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FAA733-5000-A241-831E-63C6565D009F}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>609</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+      <c r="D2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="G2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" t="s">
+        <v>616</v>
+      </c>
+      <c r="J2" t="s">
+        <v>617</v>
+      </c>
+      <c r="K2" t="s">
+        <v>618</v>
+      </c>
+      <c r="L2" t="s">
+        <v>619</v>
+      </c>
+      <c r="M2" t="s">
+        <v>620</v>
+      </c>
+      <c r="N2" t="s">
+        <v>621</v>
+      </c>
+      <c r="O2" t="s">
+        <v>622</v>
+      </c>
+      <c r="P2" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" t="s">
+        <v>624</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>626</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>627</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>611</v>
+      </c>
+      <c r="E3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="G3" t="s">
+        <v>614</v>
+      </c>
+      <c r="H3" t="s">
+        <v>629</v>
+      </c>
+      <c r="I3" t="s">
+        <v>616</v>
+      </c>
+      <c r="J3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K3" t="s">
+        <v>631</v>
+      </c>
+      <c r="L3" t="s">
+        <v>632</v>
+      </c>
+      <c r="M3" t="s">
+        <v>620</v>
+      </c>
+      <c r="N3" t="s">
+        <v>621</v>
+      </c>
+      <c r="O3" t="s">
+        <v>622</v>
+      </c>
+      <c r="P3" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" t="s">
+        <v>624</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE82F25-D177-BE42-8E95-2191CC700124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E99D7-8AD0-3D48-BF79-0688B82ECD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="636">
   <si>
     <t>Epoch</t>
   </si>
@@ -250,46 +250,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1983,6 +1953,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2148,20 +2154,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2494,10 +2500,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2534,63 +2540,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2598,102 +2604,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D17" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E17" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C18" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D18" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E18" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C19" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D19" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E19" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2718,13 +2724,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -2732,13 +2738,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -2746,13 +2752,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C3" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
@@ -2765,89 +2771,96 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2879,85 +2892,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2966,16 +2979,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2984,16 +2997,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3002,16 +3015,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3020,16 +3033,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3038,16 +3051,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3056,16 +3069,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3074,16 +3087,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3092,16 +3105,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3110,16 +3123,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3128,16 +3141,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3442,90 +3455,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3554,65 +3567,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,137 +3658,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3802,104 +3815,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3926,16 +3939,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3944,1212 +3957,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5173,18 +5186,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5212,22 +5225,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>565</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>575</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5236,17 +5249,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5255,17 +5268,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5274,19 +5287,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5295,17 +5308,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5362,13 +5375,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5382,13 +5395,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -5413,115 +5426,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+        <v>231</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+        <v>232</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5541,16 +5554,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5558,16 +5571,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5584,16 +5597,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5618,19 +5631,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5638,16 +5651,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5658,13 +5671,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5692,13 +5705,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5706,10 +5719,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5717,10 +5730,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5728,10 +5741,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5739,10 +5752,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5772,10 +5785,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5786,20 +5799,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5822,10 +5835,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5916,29 +5929,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5959,7 +5972,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6042,16 +6055,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6059,7 +6072,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6067,13 +6080,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6119,179 +6132,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>598</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J2" t="s">
+        <v>607</v>
+      </c>
+      <c r="K2" t="s">
+        <v>608</v>
+      </c>
+      <c r="L2" t="s">
         <v>609</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>610</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>611</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>612</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="P2" t="s">
         <v>613</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
         <v>614</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" s="30" t="s">
         <v>615</v>
-      </c>
-      <c r="I2" t="s">
-        <v>616</v>
-      </c>
-      <c r="J2" t="s">
-        <v>617</v>
-      </c>
-      <c r="K2" t="s">
-        <v>618</v>
-      </c>
-      <c r="L2" t="s">
-        <v>619</v>
-      </c>
-      <c r="M2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N2" t="s">
-        <v>621</v>
-      </c>
-      <c r="O2" t="s">
-        <v>622</v>
-      </c>
-      <c r="P2" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>184</v>
-      </c>
-      <c r="R2" t="s">
-        <v>624</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C3" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="G3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I3" t="s">
+        <v>606</v>
+      </c>
+      <c r="J3" t="s">
+        <v>620</v>
+      </c>
+      <c r="K3" t="s">
+        <v>621</v>
+      </c>
+      <c r="L3" t="s">
+        <v>622</v>
+      </c>
+      <c r="M3" t="s">
+        <v>610</v>
+      </c>
+      <c r="N3" t="s">
         <v>611</v>
       </c>
-      <c r="E3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>612</v>
+      </c>
+      <c r="P3" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" t="s">
         <v>614</v>
       </c>
-      <c r="H3" t="s">
-        <v>629</v>
-      </c>
-      <c r="I3" t="s">
-        <v>616</v>
-      </c>
-      <c r="J3" t="s">
-        <v>630</v>
-      </c>
-      <c r="K3" t="s">
-        <v>631</v>
-      </c>
-      <c r="L3" t="s">
-        <v>632</v>
-      </c>
-      <c r="M3" t="s">
-        <v>620</v>
-      </c>
-      <c r="N3" t="s">
-        <v>621</v>
-      </c>
-      <c r="O3" t="s">
-        <v>622</v>
-      </c>
-      <c r="P3" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R3" t="s">
-        <v>624</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>625</v>
+      <c r="S3" s="30" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E99D7-8AD0-3D48-BF79-0688B82ECD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708DA31D-24FD-CC46-A2B0-81BFEDBC1E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2160,10 +2160,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2773,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -5209,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5450,34 +5450,34 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5597,16 +5597,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708DA31D-24FD-CC46-A2B0-81BFEDBC1E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15988138-2C3C-E248-AA59-3439B0018AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="39620" yWindow="6260" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="633">
   <si>
     <t>Epoch</t>
   </si>
@@ -250,16 +250,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1964,12 +1958,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1982,13 +1970,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2160,10 +2151,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2500,10 +2491,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2540,63 +2531,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2604,102 +2595,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C17" t="s">
         <v>540</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>541</v>
       </c>
-      <c r="C17" t="s">
-        <v>542</v>
-      </c>
-      <c r="D17" t="s">
-        <v>543</v>
-      </c>
       <c r="E17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D18" t="s">
         <v>545</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>547</v>
-      </c>
-      <c r="E18" t="s">
-        <v>549</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C19" t="s">
+        <v>544</v>
+      </c>
+      <c r="D19" t="s">
         <v>545</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C19" t="s">
-        <v>546</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>547</v>
-      </c>
-      <c r="E19" t="s">
-        <v>549</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2724,13 +2715,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -2738,13 +2729,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -2752,13 +2743,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
@@ -2771,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2784,45 +2775,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>625</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="B2" t="s">
         <v>626</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B2" t="s">
-        <v>630</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2830,37 +2818,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G3" t="s">
         <v>631</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G4" t="s">
         <v>632</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>631</v>
-      </c>
-      <c r="B4" t="s">
-        <v>634</v>
-      </c>
-      <c r="G4" t="s">
-        <v>635</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2892,85 +2873,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2979,16 +2960,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2997,16 +2978,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3015,16 +2996,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3033,16 +3014,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3051,16 +3032,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3069,16 +3050,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3087,16 +3068,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3105,16 +3086,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3123,16 +3104,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3141,16 +3122,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3455,90 +3436,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
         <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>150</v>
       </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
         <v>151</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3567,65 +3548,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>173</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3658,137 +3639,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3815,104 +3796,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3939,16 +3920,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3957,1212 +3938,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5186,18 +5167,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5209,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5225,22 +5206,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>556</v>
-      </c>
       <c r="F1" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5249,17 +5230,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>558</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5268,17 +5249,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5287,19 +5268,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>564</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5308,17 +5289,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5375,13 +5356,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5395,13 +5376,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -5426,10 +5407,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -5437,10 +5418,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -5450,41 +5431,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -5495,7 +5476,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -5506,7 +5487,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -5514,10 +5495,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -5525,7 +5506,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -5534,7 +5515,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5554,16 +5535,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5571,16 +5552,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5597,16 +5578,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5631,19 +5612,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5651,16 +5632,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5671,13 +5652,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5705,13 +5686,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5719,10 +5700,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5730,10 +5711,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5741,10 +5722,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5752,10 +5733,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5785,10 +5766,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5809,10 +5790,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5835,10 +5816,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5929,29 +5910,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5972,7 +5953,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6055,16 +6036,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6072,7 +6053,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6080,13 +6061,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6132,179 +6113,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>596</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" t="s">
         <v>599</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>600</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>602</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" t="s">
         <v>603</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>604</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>605</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>606</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>607</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>608</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>609</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>610</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>611</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" t="s">
         <v>612</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="30" t="s">
         <v>613</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" t="s">
-        <v>614</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E3" t="s">
         <v>616</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="G3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H3" t="s">
         <v>617</v>
       </c>
-      <c r="D3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>604</v>
+      </c>
+      <c r="J3" t="s">
         <v>618</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="G3" t="s">
-        <v>604</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>619</v>
       </c>
-      <c r="I3" t="s">
-        <v>606</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>620</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>608</v>
+      </c>
+      <c r="N3" t="s">
+        <v>609</v>
+      </c>
+      <c r="O3" t="s">
+        <v>610</v>
+      </c>
+      <c r="P3" t="s">
         <v>621</v>
       </c>
-      <c r="L3" t="s">
-        <v>622</v>
-      </c>
-      <c r="M3" t="s">
-        <v>610</v>
-      </c>
-      <c r="N3" t="s">
-        <v>611</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" t="s">
         <v>612</v>
       </c>
-      <c r="P3" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" t="s">
-        <v>614</v>
-      </c>
       <c r="S3" s="30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1C4095-7034-8F49-8E8D-1995EBFC8C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B083C9-6C72-C24E-B072-99A5A347B311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59760" yWindow="3240" windowWidth="33600" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64640" yWindow="640" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="658">
   <si>
     <t>Screening</t>
   </si>
@@ -1839,18 +1839,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1887,12 +1881,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -2059,6 +2047,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2230,10 +2227,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2253,9 +2250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2293,7 +2290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2399,7 +2396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2541,7 +2538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2778,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FAA733-5000-A241-831E-63C6565D009F}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2879,49 +2876,49 @@
         <v>584</v>
       </c>
       <c r="E2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" t="s">
         <v>586</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I2" t="s">
         <v>587</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>588</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>589</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>590</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>591</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>592</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>593</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>594</v>
-      </c>
-      <c r="O2" t="s">
-        <v>595</v>
-      </c>
-      <c r="P2" t="s">
-        <v>596</v>
       </c>
       <c r="Q2" t="s">
         <v>159</v>
       </c>
       <c r="R2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2929,58 +2926,58 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D3" t="s">
         <v>584</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J3" t="s">
+        <v>599</v>
+      </c>
+      <c r="K3" t="s">
+        <v>600</v>
+      </c>
+      <c r="L3" t="s">
         <v>601</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="G3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>591</v>
+      </c>
+      <c r="N3" t="s">
+        <v>592</v>
+      </c>
+      <c r="O3" t="s">
+        <v>593</v>
+      </c>
+      <c r="P3" t="s">
         <v>602</v>
-      </c>
-      <c r="I3" t="s">
-        <v>589</v>
-      </c>
-      <c r="J3" t="s">
-        <v>603</v>
-      </c>
-      <c r="K3" t="s">
-        <v>604</v>
-      </c>
-      <c r="L3" t="s">
-        <v>605</v>
-      </c>
-      <c r="M3" t="s">
-        <v>593</v>
-      </c>
-      <c r="N3" t="s">
-        <v>594</v>
-      </c>
-      <c r="O3" t="s">
-        <v>595</v>
-      </c>
-      <c r="P3" t="s">
-        <v>606</v>
       </c>
       <c r="Q3" t="s">
         <v>159</v>
       </c>
       <c r="R3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3068,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>448</v>
@@ -3083,13 +3080,13 @@
         <v>521</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -3097,10 +3094,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3114,24 +3111,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G3" t="s">
         <v>612</v>
-      </c>
-      <c r="B3" t="s">
-        <v>613</v>
-      </c>
-      <c r="G3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -5721,34 +5718,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5868,16 +5865,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6065,19 +6062,19 @@
         <v>448</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -6094,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>196</v>
@@ -6117,7 +6114,7 @@
         <v>521</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6126,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>196</v>
@@ -6138,46 +6135,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6189,7 +6186,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6211,7 +6208,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>181</v>
@@ -6302,7 +6299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97585A89-0DFF-DC48-9F27-BA22C5F09D3B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -6328,123 +6325,123 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>638</v>
+      </c>
+      <c r="I3" t="s">
         <v>642</v>
-      </c>
-      <c r="I3" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6452,31 +6449,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C6" t="s">
         <v>196</v>
       </c>
       <c r="D6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E6" t="s">
+        <v>618</v>
+      </c>
+      <c r="F6" t="s">
+        <v>616</v>
+      </c>
+      <c r="G6" t="s">
         <v>653</v>
       </c>
-      <c r="E6" t="s">
-        <v>622</v>
-      </c>
-      <c r="F6" t="s">
-        <v>620</v>
-      </c>
-      <c r="G6" t="s">
-        <v>657</v>
-      </c>
       <c r="H6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B083C9-6C72-C24E-B072-99A5A347B311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F4B94-0906-1B42-8628-1157FD3472F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64640" yWindow="640" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45260" yWindow="4580" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -233,9 +233,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -2056,6 +2050,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2227,10 +2227,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2250,9 +2250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2290,7 +2290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2396,7 +2396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2538,7 +2538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2564,10 +2564,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2604,63 +2604,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -2668,102 +2668,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" t="s">
         <v>523</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>524</v>
       </c>
-      <c r="C17" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" t="s">
-        <v>526</v>
-      </c>
       <c r="E17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>530</v>
-      </c>
-      <c r="E18" t="s">
-        <v>532</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
         <v>528</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C19" t="s">
-        <v>529</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>530</v>
-      </c>
-      <c r="E19" t="s">
-        <v>532</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FAA733-5000-A241-831E-63C6565D009F}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2805,179 +2805,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>579</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" t="s">
         <v>582</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>584</v>
       </c>
-      <c r="E2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" t="s">
+        <v>654</v>
+      </c>
+      <c r="I2" t="s">
         <v>585</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>586</v>
       </c>
-      <c r="H2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>587</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>588</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>589</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>590</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>591</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>592</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" t="s">
         <v>593</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="30" t="s">
         <v>594</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" t="s">
-        <v>595</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H3" t="s">
+        <v>655</v>
+      </c>
+      <c r="I3" t="s">
         <v>585</v>
       </c>
-      <c r="G3" t="s">
-        <v>586</v>
-      </c>
-      <c r="H3" t="s">
-        <v>657</v>
-      </c>
-      <c r="I3" t="s">
-        <v>587</v>
-      </c>
       <c r="J3" t="s">
+        <v>597</v>
+      </c>
+      <c r="K3" t="s">
+        <v>598</v>
+      </c>
+      <c r="L3" t="s">
         <v>599</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>589</v>
+      </c>
+      <c r="N3" t="s">
+        <v>590</v>
+      </c>
+      <c r="O3" t="s">
+        <v>591</v>
+      </c>
+      <c r="P3" t="s">
         <v>600</v>
       </c>
-      <c r="L3" t="s">
-        <v>601</v>
-      </c>
-      <c r="M3" t="s">
-        <v>591</v>
-      </c>
-      <c r="N3" t="s">
-        <v>592</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" t="s">
         <v>593</v>
       </c>
-      <c r="P3" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" t="s">
-        <v>595</v>
-      </c>
       <c r="S3" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -3002,13 +3002,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
@@ -3016,13 +3016,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -3030,13 +3030,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
@@ -3068,25 +3068,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3111,24 +3111,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" t="s">
         <v>608</v>
       </c>
-      <c r="B4" t="s">
-        <v>610</v>
-      </c>
       <c r="G4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -3140,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3160,34 +3160,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>559</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>561</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>57</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3203,42 +3203,42 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>656</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>657</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3247,16 +3247,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3265,16 +3265,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3283,16 +3283,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3301,16 +3301,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3319,16 +3319,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3337,16 +3337,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3355,16 +3355,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3373,16 +3373,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3391,16 +3391,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3409,16 +3409,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3723,90 +3723,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
         <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3835,65 +3835,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>158</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3926,137 +3926,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4083,104 +4083,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4207,16 +4207,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4225,1212 +4225,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5454,18 +5454,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5493,22 +5493,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>539</v>
-      </c>
       <c r="F1" s="28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5517,17 +5517,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5536,17 +5536,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5555,19 +5555,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>547</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5576,17 +5576,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5643,13 +5643,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5663,13 +5663,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -5694,10 +5694,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -5718,41 +5718,41 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="B5" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -5763,7 +5763,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -5774,7 +5774,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -5822,16 +5822,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5839,16 +5839,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5865,16 +5865,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5899,19 +5899,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5919,16 +5919,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5939,13 +5939,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5973,13 +5973,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5987,10 +5987,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5998,10 +5998,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6009,10 +6009,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6020,10 +6020,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6053,36 +6053,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>47</v>
@@ -6091,30 +6091,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6123,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6135,46 +6135,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6186,7 +6186,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6208,22 +6208,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6234,7 +6234,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6313,135 +6313,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H2" t="s">
         <v>636</v>
-      </c>
-      <c r="E2" t="s">
-        <v>614</v>
-      </c>
-      <c r="F2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G2" t="s">
-        <v>637</v>
-      </c>
-      <c r="H2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C3" t="s">
         <v>639</v>
       </c>
-      <c r="B3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C3" t="s">
-        <v>641</v>
-      </c>
       <c r="D3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D4" t="s">
         <v>643</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G4" t="s">
         <v>644</v>
-      </c>
-      <c r="C4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D4" t="s">
-        <v>645</v>
-      </c>
-      <c r="E4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F4" t="s">
-        <v>616</v>
-      </c>
-      <c r="G4" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D5" t="s">
         <v>647</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F5" t="s">
+        <v>614</v>
+      </c>
+      <c r="G5" t="s">
         <v>648</v>
       </c>
-      <c r="C5" t="s">
-        <v>621</v>
-      </c>
-      <c r="D5" t="s">
-        <v>649</v>
-      </c>
-      <c r="E5" t="s">
-        <v>617</v>
-      </c>
-      <c r="F5" t="s">
-        <v>616</v>
-      </c>
-      <c r="G5" t="s">
-        <v>650</v>
-      </c>
       <c r="H5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6449,31 +6449,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G6" t="s">
         <v>651</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>636</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" t="s">
-        <v>649</v>
-      </c>
-      <c r="E6" t="s">
-        <v>618</v>
-      </c>
-      <c r="F6" t="s">
-        <v>616</v>
-      </c>
-      <c r="G6" t="s">
-        <v>653</v>
-      </c>
-      <c r="H6" t="s">
-        <v>638</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6500,16 +6500,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6517,7 +6517,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6525,13 +6525,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F4B94-0906-1B42-8628-1157FD3472F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F351C32-2086-B54A-B3B1-480D0547035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45260" yWindow="4580" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45260" yWindow="4580" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="658">
   <si>
     <t>Screening</t>
   </si>
@@ -2227,10 +2227,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3140,7 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -5718,34 +5718,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5865,16 +5865,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6035,11 +6035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6238,9 +6238,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -6264,9 +6262,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F351C32-2086-B54A-B3B1-480D0547035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D208D-5203-084E-A0DC-6F4938A4FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45260" yWindow="4580" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45260" yWindow="4580" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="661">
   <si>
     <t>Screening</t>
   </si>
@@ -2056,6 +2056,15 @@
   </si>
   <si>
     <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>geographicScope</t>
+  </si>
+  <si>
+    <t>Region: Europe</t>
+  </si>
+  <si>
+    <t>Country: GBR, Country: FRA</t>
   </si>
 </sst>
 </file>
@@ -2227,10 +2236,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5475,10 +5484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5487,11 +5496,11 @@
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="5" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>533</v>
       </c>
@@ -5507,12 +5516,15 @@
       <c r="E1" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -5527,11 +5539,14 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -5546,11 +5561,14 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5566,12 +5584,13 @@
       <c r="E4" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -5586,9 +5605,12 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5718,34 +5740,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5865,16 +5887,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6035,7 +6057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,30 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D208D-5203-084E-A0DC-6F4938A4FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B452C-53BD-8E45-8821-DC4E3F353CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45260" yWindow="4580" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="54980" yWindow="5980" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="18" r:id="rId2"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
-    <sheet name="studyDesignArms" sheetId="15" r:id="rId5"/>
-    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId6"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId7"/>
-    <sheet name="studyDesignTiming" sheetId="20" r:id="rId8"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId9"/>
-    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId10"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId11"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId12"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId13"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId14"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId15"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId16"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId17"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId18"/>
-    <sheet name="configuration" sheetId="10" r:id="rId19"/>
+    <sheet name="amendmentChanges" sheetId="22" r:id="rId3"/>
+    <sheet name="amendmentImpact" sheetId="21" r:id="rId4"/>
+    <sheet name="studyIdentifiers" sheetId="3" r:id="rId5"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId6"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId7"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId8"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
+    <sheet name="studyDesignTiming" sheetId="20" r:id="rId10"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId11"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId12"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId13"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId14"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId15"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId16"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId17"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId18"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId19"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId20"/>
+    <sheet name="configuration" sheetId="10" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="699">
   <si>
     <t>Screening</t>
   </si>
@@ -1689,9 +1691,6 @@
     <t>summary</t>
   </si>
   <si>
-    <t>substantialImpact</t>
-  </si>
-  <si>
     <t>primaryReason</t>
   </si>
   <si>
@@ -2065,6 +2064,123 @@
   </si>
   <si>
     <t>Country: GBR, Country: FRA</t>
+  </si>
+  <si>
+    <t>amendment</t>
+  </si>
+  <si>
+    <t>rationale</t>
+  </si>
+  <si>
+    <t>substantial</t>
+  </si>
+  <si>
+    <t>Amendment 4 substantial Impact 1</t>
+  </si>
+  <si>
+    <t>Amendment 4 Impact 2</t>
+  </si>
+  <si>
+    <t>Amendment 4 Impact 3</t>
+  </si>
+  <si>
+    <t>Amendment 3</t>
+  </si>
+  <si>
+    <t>Amendment 2</t>
+  </si>
+  <si>
+    <t>Amendment 1</t>
+  </si>
+  <si>
+    <t>Study Subject Safety</t>
+  </si>
+  <si>
+    <t>Study Subject Rights</t>
+  </si>
+  <si>
+    <t>Study Data Reliability</t>
+  </si>
+  <si>
+    <t>Study Data Robustness</t>
+  </si>
+  <si>
+    <t>sections</t>
+  </si>
+  <si>
+    <t>AMEND_CHG_1</t>
+  </si>
+  <si>
+    <t>AMEND_CHG_2</t>
+  </si>
+  <si>
+    <t>AMEND_CHG_3</t>
+  </si>
+  <si>
+    <t>AMEND_CHG_4</t>
+  </si>
+  <si>
+    <t>AMEND_CHG_7</t>
+  </si>
+  <si>
+    <t>AMEND_CHG_10</t>
+  </si>
+  <si>
+    <t>Needed fixing</t>
+  </si>
+  <si>
+    <t>Fixed A</t>
+  </si>
+  <si>
+    <t>Fixed B</t>
+  </si>
+  <si>
+    <t>Fixed C</t>
+  </si>
+  <si>
+    <t>1.2: Header 1.2</t>
+  </si>
+  <si>
+    <t>2.4: Header 2.4, 2.5: header 2.5</t>
+  </si>
+  <si>
+    <t>5.4: Header 5.4</t>
+  </si>
+  <si>
+    <t>Something wrong</t>
+  </si>
+  <si>
+    <t>Somethig else wrong</t>
+  </si>
+  <si>
+    <t>Really wrong</t>
+  </si>
+  <si>
+    <t>Just plain wrong</t>
+  </si>
+  <si>
+    <t>Disaster!</t>
+  </si>
+  <si>
+    <t>Fixed D</t>
+  </si>
+  <si>
+    <t>Fixed E</t>
+  </si>
+  <si>
+    <t>Fixed F</t>
+  </si>
+  <si>
+    <t>1.3: Header 1.3</t>
+  </si>
+  <si>
+    <t>1.4: Header 1.4</t>
+  </si>
+  <si>
+    <t>1.5: Header 1.5</t>
+  </si>
+  <si>
+    <t>Amendment 4 change</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2223,9 +2339,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2557,7 +2670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G17" sqref="G17:G19"/>
     </sheetView>
   </sheetViews>
@@ -2726,7 +2839,7 @@
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2772,7 +2885,7 @@
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -2781,6 +2894,254 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97585A89-0DFF-DC48-9F27-BA22C5F09D3B}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>635</v>
+      </c>
+      <c r="I3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" t="s">
+        <v>613</v>
+      </c>
+      <c r="G4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E5" t="s">
+        <v>614</v>
+      </c>
+      <c r="F5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" t="s">
+        <v>613</v>
+      </c>
+      <c r="G6" t="s">
+        <v>650</v>
+      </c>
+      <c r="H6" t="s">
+        <v>635</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="24" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FAA733-5000-A241-831E-63C6565D009F}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2826,49 +3187,49 @@
         <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2876,58 +3237,58 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" t="s">
         <v>580</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>581</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H2" t="s">
         <v>653</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>584</v>
       </c>
-      <c r="H2" t="s">
-        <v>654</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>585</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>586</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>587</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>588</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>589</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>590</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>591</v>
-      </c>
-      <c r="P2" t="s">
-        <v>592</v>
       </c>
       <c r="Q2" t="s">
         <v>157</v>
       </c>
       <c r="R2" t="s">
+        <v>592</v>
+      </c>
+      <c r="S2" s="29" t="s">
         <v>593</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2935,58 +3296,58 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" t="s">
         <v>595</v>
       </c>
-      <c r="C3" t="s">
-        <v>596</v>
-      </c>
       <c r="D3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="G3" t="s">
         <v>583</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>654</v>
+      </c>
+      <c r="I3" t="s">
         <v>584</v>
       </c>
-      <c r="H3" t="s">
-        <v>655</v>
-      </c>
-      <c r="I3" t="s">
-        <v>585</v>
-      </c>
       <c r="J3" t="s">
+        <v>596</v>
+      </c>
+      <c r="K3" t="s">
         <v>597</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>598</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>588</v>
+      </c>
+      <c r="N3" t="s">
+        <v>589</v>
+      </c>
+      <c r="O3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P3" t="s">
         <v>599</v>
-      </c>
-      <c r="M3" t="s">
-        <v>589</v>
-      </c>
-      <c r="N3" t="s">
-        <v>590</v>
-      </c>
-      <c r="O3" t="s">
-        <v>591</v>
-      </c>
-      <c r="P3" t="s">
-        <v>600</v>
       </c>
       <c r="Q3" t="s">
         <v>157</v>
       </c>
       <c r="R3" t="s">
+        <v>592</v>
+      </c>
+      <c r="S3" s="29" t="s">
         <v>593</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +3355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3028,10 +3389,10 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" t="s">
         <v>562</v>
-      </c>
-      <c r="C2" t="s">
-        <v>563</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -3042,10 +3403,10 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" t="s">
         <v>564</v>
-      </c>
-      <c r="C3" t="s">
-        <v>565</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
@@ -3056,7 +3417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3077,7 +3438,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>446</v>
@@ -3089,13 +3450,13 @@
         <v>519</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>603</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -3103,10 +3464,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" t="s">
         <v>604</v>
-      </c>
-      <c r="B2" t="s">
-        <v>605</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3120,24 +3481,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" t="s">
         <v>606</v>
       </c>
-      <c r="B3" t="s">
-        <v>607</v>
-      </c>
       <c r="G3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -3175,10 +3536,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>555</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>556</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>55</v>
@@ -3190,13 +3551,13 @@
         <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>558</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>559</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>57</v>
@@ -3212,7 +3573,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>83</v>
@@ -3236,7 +3597,7 @@
         <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>84</v>
@@ -3712,7 +4073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3823,7 +4184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3915,7 +4276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -4074,7 +4435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4198,7 +4559,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="25" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -5448,7 +5928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5482,142 +5962,281 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:H5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB23538-0952-6B4E-9B91-638DCC3FCF6A}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>533</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>660</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>534</v>
       </c>
+      <c r="G1" s="18" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F3" t="s">
+        <v>682</v>
+      </c>
+      <c r="G3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E4" t="s">
+        <v>688</v>
+      </c>
+      <c r="F4" t="s">
+        <v>683</v>
+      </c>
+      <c r="G4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" t="s">
+        <v>677</v>
+      </c>
+      <c r="E5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E6" t="s">
+        <v>690</v>
+      </c>
+      <c r="F6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BEE9BD-6885-194D-B877-695DDF2D0361}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>249</v>
+      </c>
       <c r="C1" s="18" t="s">
-        <v>535</v>
+        <v>662</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C5" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C6" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="D6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" t="s">
+        <v>669</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -5671,7 +6290,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5691,7 +6310,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -5699,7 +6318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -5718,109 +6337,109 @@
       <c r="A1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
@@ -5902,12 +6521,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5978,7 +6597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -6053,7 +6672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -6084,19 +6703,19 @@
         <v>446</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -6113,13 +6732,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>194</v>
@@ -6136,7 +6755,7 @@
         <v>519</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6145,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>194</v>
@@ -6157,46 +6776,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6208,7 +6827,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6230,7 +6849,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>179</v>
@@ -6311,252 +6930,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97585A89-0DFF-DC48-9F27-BA22C5F09D3B}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="9" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="E2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G2" t="s">
-        <v>635</v>
-      </c>
-      <c r="H2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>637</v>
-      </c>
-      <c r="B3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C3" t="s">
-        <v>639</v>
-      </c>
-      <c r="D3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E3" t="s">
-        <v>613</v>
-      </c>
-      <c r="F3" t="s">
-        <v>614</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>636</v>
-      </c>
-      <c r="I3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>641</v>
-      </c>
-      <c r="B4" t="s">
-        <v>642</v>
-      </c>
-      <c r="C4" t="s">
-        <v>618</v>
-      </c>
-      <c r="D4" t="s">
-        <v>643</v>
-      </c>
-      <c r="E4" t="s">
-        <v>614</v>
-      </c>
-      <c r="F4" t="s">
-        <v>614</v>
-      </c>
-      <c r="G4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>645</v>
-      </c>
-      <c r="B5" t="s">
-        <v>646</v>
-      </c>
-      <c r="C5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E5" t="s">
-        <v>615</v>
-      </c>
-      <c r="F5" t="s">
-        <v>614</v>
-      </c>
-      <c r="G5" t="s">
-        <v>648</v>
-      </c>
-      <c r="H5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" t="s">
-        <v>647</v>
-      </c>
-      <c r="E6" t="s">
-        <v>616</v>
-      </c>
-      <c r="F6" t="s">
-        <v>614</v>
-      </c>
-      <c r="G6" t="s">
-        <v>651</v>
-      </c>
-      <c r="H6" t="s">
-        <v>636</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="24" style="7" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B452C-53BD-8E45-8821-DC4E3F353CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB1CB32-0874-6344-945B-C33D65CF77C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54980" yWindow="5980" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="54960" yWindow="5980" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="707">
   <si>
     <t>Screening</t>
   </si>
@@ -1652,9 +1652,6 @@
     <t>study_version</t>
   </si>
   <si>
-    <t>Approval</t>
-  </si>
-  <si>
     <t>Design approval date</t>
   </si>
   <si>
@@ -2181,6 +2178,33 @@
   </si>
   <si>
     <t>Amendment 4 change</t>
+  </si>
+  <si>
+    <t>Approval_1</t>
+  </si>
+  <si>
+    <t>Approval_2</t>
+  </si>
+  <si>
+    <t>Approval_3</t>
+  </si>
+  <si>
+    <t>AMEND_DATE_1</t>
+  </si>
+  <si>
+    <t>Amendment approval date</t>
+  </si>
+  <si>
+    <t>country : GBR</t>
+  </si>
+  <si>
+    <t>AMEND_DATE_2</t>
+  </si>
+  <si>
+    <t>AMEND_DATE_3</t>
+  </si>
+  <si>
+    <t>AMEND_DATE_4</t>
   </si>
 </sst>
 </file>
@@ -2668,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2689,7 +2713,7 @@
         <v>446</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2816,7 +2840,7 @@
         <v>520</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2824,68 +2848,160 @@
         <v>521</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C17" t="s">
         <v>522</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>523</v>
       </c>
-      <c r="D17" t="s">
-        <v>524</v>
-      </c>
       <c r="E17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C18" t="s">
         <v>526</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>527</v>
       </c>
-      <c r="D18" t="s">
-        <v>528</v>
-      </c>
       <c r="E18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C19" t="s">
         <v>526</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>527</v>
       </c>
-      <c r="D19" t="s">
-        <v>528</v>
-      </c>
       <c r="E19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C20" t="s">
+        <v>702</v>
+      </c>
+      <c r="D20" t="s">
+        <v>527</v>
+      </c>
+      <c r="E20" t="s">
+        <v>529</v>
+      </c>
+      <c r="F20" s="26">
+        <v>44988</v>
+      </c>
+      <c r="G20" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C21" t="s">
+        <v>702</v>
+      </c>
+      <c r="D21" t="s">
+        <v>527</v>
+      </c>
+      <c r="E21" t="s">
+        <v>529</v>
+      </c>
+      <c r="F21" s="26">
+        <v>44988</v>
+      </c>
+      <c r="G21" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C22" t="s">
+        <v>702</v>
+      </c>
+      <c r="D22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E22" t="s">
+        <v>529</v>
+      </c>
+      <c r="F22" s="26">
+        <v>44988</v>
+      </c>
+      <c r="G22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C23" t="s">
+        <v>702</v>
+      </c>
+      <c r="D23" t="s">
+        <v>527</v>
+      </c>
+      <c r="E23" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="26">
+        <v>44988</v>
+      </c>
+      <c r="G23" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -2923,123 +3039,123 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" t="s">
         <v>631</v>
-      </c>
-      <c r="B2" t="s">
-        <v>632</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G2" t="s">
         <v>633</v>
       </c>
-      <c r="E2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>634</v>
-      </c>
-      <c r="H2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B3" t="s">
         <v>636</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>637</v>
       </c>
-      <c r="C3" t="s">
-        <v>638</v>
-      </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F3" t="s">
         <v>612</v>
-      </c>
-      <c r="F3" t="s">
-        <v>613</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" t="s">
         <v>640</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D4" t="s">
         <v>641</v>
       </c>
-      <c r="C4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G4" t="s">
         <v>642</v>
-      </c>
-      <c r="E4" t="s">
-        <v>613</v>
-      </c>
-      <c r="F4" t="s">
-        <v>613</v>
-      </c>
-      <c r="G4" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B5" t="s">
         <v>644</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" t="s">
         <v>645</v>
       </c>
-      <c r="C5" t="s">
-        <v>618</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F5" t="s">
+        <v>612</v>
+      </c>
+      <c r="G5" t="s">
         <v>646</v>
       </c>
-      <c r="E5" t="s">
-        <v>614</v>
-      </c>
-      <c r="F5" t="s">
-        <v>613</v>
-      </c>
-      <c r="G5" t="s">
-        <v>647</v>
-      </c>
       <c r="H5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3047,31 +3163,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B6" t="s">
         <v>648</v>
-      </c>
-      <c r="B6" t="s">
-        <v>649</v>
       </c>
       <c r="C6" t="s">
         <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G6" t="s">
+        <v>649</v>
+      </c>
+      <c r="H6" t="s">
+        <v>634</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="H6" t="s">
-        <v>635</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -3187,49 +3303,49 @@
         <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>577</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3237,58 +3353,58 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
         <v>579</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>580</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" t="s">
         <v>652</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>583</v>
       </c>
-      <c r="H2" t="s">
-        <v>653</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>584</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>585</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>586</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>587</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>588</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>589</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>590</v>
-      </c>
-      <c r="P2" t="s">
-        <v>591</v>
       </c>
       <c r="Q2" t="s">
         <v>157</v>
       </c>
       <c r="R2" t="s">
+        <v>591</v>
+      </c>
+      <c r="S2" s="29" t="s">
         <v>592</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3296,58 +3412,58 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" t="s">
         <v>594</v>
       </c>
-      <c r="C3" t="s">
-        <v>595</v>
-      </c>
       <c r="D3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
         <v>582</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I3" t="s">
         <v>583</v>
       </c>
-      <c r="H3" t="s">
-        <v>654</v>
-      </c>
-      <c r="I3" t="s">
-        <v>584</v>
-      </c>
       <c r="J3" t="s">
+        <v>595</v>
+      </c>
+      <c r="K3" t="s">
         <v>596</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>597</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>587</v>
+      </c>
+      <c r="N3" t="s">
+        <v>588</v>
+      </c>
+      <c r="O3" t="s">
+        <v>589</v>
+      </c>
+      <c r="P3" t="s">
         <v>598</v>
-      </c>
-      <c r="M3" t="s">
-        <v>588</v>
-      </c>
-      <c r="N3" t="s">
-        <v>589</v>
-      </c>
-      <c r="O3" t="s">
-        <v>590</v>
-      </c>
-      <c r="P3" t="s">
-        <v>599</v>
       </c>
       <c r="Q3" t="s">
         <v>157</v>
       </c>
       <c r="R3" t="s">
+        <v>591</v>
+      </c>
+      <c r="S3" s="29" t="s">
         <v>592</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -3389,10 +3505,10 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" t="s">
         <v>561</v>
-      </c>
-      <c r="C2" t="s">
-        <v>562</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -3403,10 +3519,10 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" t="s">
         <v>563</v>
-      </c>
-      <c r="C3" t="s">
-        <v>564</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
@@ -3438,7 +3554,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>446</v>
@@ -3450,13 +3566,13 @@
         <v>519</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>602</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>52</v>
@@ -3464,10 +3580,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" t="s">
         <v>603</v>
-      </c>
-      <c r="B2" t="s">
-        <v>604</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3481,24 +3597,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" t="s">
         <v>605</v>
       </c>
-      <c r="B3" t="s">
-        <v>606</v>
-      </c>
       <c r="G3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3536,10 +3652,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>554</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>555</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>55</v>
@@ -3551,13 +3667,13 @@
         <v>56</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>557</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>558</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>57</v>
@@ -3573,7 +3689,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>83</v>
@@ -3597,7 +3713,7 @@
         <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>84</v>
@@ -4564,7 +4680,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4574,104 +4690,115 @@
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="5" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>536</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="G1" s="10"/>
+        <v>544</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="G2" s="10"/>
+        <v>547</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>387</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="G3" s="10"/>
+        <v>548</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>543</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>544</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G4" s="10"/>
+        <v>549</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>547</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="G5" s="10"/>
+        <v>550</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>706</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5982,7 +6109,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>446</v>
@@ -5994,13 +6121,13 @@
         <v>519</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6008,22 +6135,22 @@
         <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F2" t="s">
         <v>680</v>
       </c>
-      <c r="F2" t="s">
-        <v>681</v>
-      </c>
       <c r="G2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6031,16 +6158,16 @@
         <v>388</v>
       </c>
       <c r="B3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6048,16 +6175,16 @@
         <v>388</v>
       </c>
       <c r="B4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6065,16 +6192,16 @@
         <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6082,16 +6209,16 @@
         <v>384</v>
       </c>
       <c r="B6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -6099,16 +6226,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -6135,13 +6262,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>249</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>46</v>
@@ -6152,13 +6279,13 @@
         <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C2" t="s">
         <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6166,13 +6293,13 @@
         <v>388</v>
       </c>
       <c r="B3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C3" t="s">
         <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6180,13 +6307,13 @@
         <v>388</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C4" t="s">
         <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6194,13 +6321,13 @@
         <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6208,13 +6335,13 @@
         <v>384</v>
       </c>
       <c r="B6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C6" t="s">
         <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6222,13 +6349,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" t="s">
         <v>668</v>
-      </c>
-      <c r="C7" t="s">
-        <v>539</v>
-      </c>
-      <c r="D7" t="s">
-        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -6290,7 +6417,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6310,7 +6437,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -6703,19 +6830,19 @@
         <v>446</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -6732,13 +6859,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>194</v>
@@ -6755,7 +6882,7 @@
         <v>519</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6764,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>194</v>
@@ -6776,46 +6903,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6827,7 +6954,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6849,7 +6976,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>179</v>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB1CB32-0874-6344-945B-C33D65CF77C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC11BB27-27D5-F243-883F-2D9C4733FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54960" yWindow="5980" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53380" yWindow="4760" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4680,7 +4680,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC11BB27-27D5-F243-883F-2D9C4733FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD347573-AC53-554C-ABBC-B12CFE0D6C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53380" yWindow="4760" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="20100" yWindow="500" windowWidth="53160" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -32,8 +32,9 @@
     <sheet name="studyDesignProcedures" sheetId="11" r:id="rId17"/>
     <sheet name="studyDesignEncounters" sheetId="12" r:id="rId18"/>
     <sheet name="studyDesignElements" sheetId="13" r:id="rId19"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId20"/>
-    <sheet name="configuration" sheetId="10" r:id="rId21"/>
+    <sheet name="document" sheetId="23" r:id="rId20"/>
+    <sheet name="documentContent" sheetId="17" r:id="rId21"/>
+    <sheet name="configuration" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="849">
   <si>
     <t>Screening</t>
   </si>
@@ -2205,6 +2206,432 @@
   </si>
   <si>
     <t>AMEND_DATE_4</t>
+  </si>
+  <si>
+    <t>displaySectionNumber</t>
+  </si>
+  <si>
+    <t>displaySectionTitle</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>NC_1</t>
+  </si>
+  <si>
+    <t>NC_2</t>
+  </si>
+  <si>
+    <t>NC_3</t>
+  </si>
+  <si>
+    <t>NC_4</t>
+  </si>
+  <si>
+    <t>NC_5</t>
+  </si>
+  <si>
+    <t>NC_6</t>
+  </si>
+  <si>
+    <t>NC_7</t>
+  </si>
+  <si>
+    <t>NC_8</t>
+  </si>
+  <si>
+    <t>NC_9</t>
+  </si>
+  <si>
+    <t>NC_10</t>
+  </si>
+  <si>
+    <t>NC_11</t>
+  </si>
+  <si>
+    <t>NC_12</t>
+  </si>
+  <si>
+    <t>NC_13</t>
+  </si>
+  <si>
+    <t>NC_14</t>
+  </si>
+  <si>
+    <t>NC_15</t>
+  </si>
+  <si>
+    <t>NC_16</t>
+  </si>
+  <si>
+    <t>NC_17</t>
+  </si>
+  <si>
+    <t>NC_18</t>
+  </si>
+  <si>
+    <t>NC_19</t>
+  </si>
+  <si>
+    <t>NC_20</t>
+  </si>
+  <si>
+    <t>NC_21</t>
+  </si>
+  <si>
+    <t>NC_22</t>
+  </si>
+  <si>
+    <t>NC_23</t>
+  </si>
+  <si>
+    <t>NC_24</t>
+  </si>
+  <si>
+    <t>NC_25</t>
+  </si>
+  <si>
+    <t>NC_26</t>
+  </si>
+  <si>
+    <t>NC_27</t>
+  </si>
+  <si>
+    <t>NC_28</t>
+  </si>
+  <si>
+    <t>NC_29</t>
+  </si>
+  <si>
+    <t>NC_30</t>
+  </si>
+  <si>
+    <t>NC_31</t>
+  </si>
+  <si>
+    <t>NC_32</t>
+  </si>
+  <si>
+    <t>NC_33</t>
+  </si>
+  <si>
+    <t>NC_34</t>
+  </si>
+  <si>
+    <t>NC_35</t>
+  </si>
+  <si>
+    <t>NC_36</t>
+  </si>
+  <si>
+    <t>NC_37</t>
+  </si>
+  <si>
+    <t>NC_38</t>
+  </si>
+  <si>
+    <t>NC_39</t>
+  </si>
+  <si>
+    <t>NC_40</t>
+  </si>
+  <si>
+    <t>NC_41</t>
+  </si>
+  <si>
+    <t>NC_42</t>
+  </si>
+  <si>
+    <t>NC_43</t>
+  </si>
+  <si>
+    <t>NC_44</t>
+  </si>
+  <si>
+    <t>NC_45</t>
+  </si>
+  <si>
+    <t>NC_46</t>
+  </si>
+  <si>
+    <t>NC_47</t>
+  </si>
+  <si>
+    <t>NC_48</t>
+  </si>
+  <si>
+    <t>NC_49</t>
+  </si>
+  <si>
+    <t>NC_50</t>
+  </si>
+  <si>
+    <t>NC_51</t>
+  </si>
+  <si>
+    <t>NC_52</t>
+  </si>
+  <si>
+    <t>NC_53</t>
+  </si>
+  <si>
+    <t>NC_54</t>
+  </si>
+  <si>
+    <t>NC_55</t>
+  </si>
+  <si>
+    <t>NC_56</t>
+  </si>
+  <si>
+    <t>NC_57</t>
+  </si>
+  <si>
+    <t>NC_58</t>
+  </si>
+  <si>
+    <t>NC_59</t>
+  </si>
+  <si>
+    <t>NC_60</t>
+  </si>
+  <si>
+    <t>NC_61</t>
+  </si>
+  <si>
+    <t>NC_62</t>
+  </si>
+  <si>
+    <t>NC_63</t>
+  </si>
+  <si>
+    <t>NC_64</t>
+  </si>
+  <si>
+    <t>NC_65</t>
+  </si>
+  <si>
+    <t>NC_66</t>
+  </si>
+  <si>
+    <t>NC_67</t>
+  </si>
+  <si>
+    <t>NC_68</t>
+  </si>
+  <si>
+    <t>NC_69</t>
+  </si>
+  <si>
+    <t>NC_70</t>
+  </si>
+  <si>
+    <t>NC_71</t>
+  </si>
+  <si>
+    <t>NC_72</t>
+  </si>
+  <si>
+    <t>NC_73</t>
+  </si>
+  <si>
+    <t>NC_74</t>
+  </si>
+  <si>
+    <t>NC_75</t>
+  </si>
+  <si>
+    <t>NC_76</t>
+  </si>
+  <si>
+    <t>NC_77</t>
+  </si>
+  <si>
+    <t>NC_78</t>
+  </si>
+  <si>
+    <t>NC_79</t>
+  </si>
+  <si>
+    <t>NC_80</t>
+  </si>
+  <si>
+    <t>NC_81</t>
+  </si>
+  <si>
+    <t>NC_82</t>
+  </si>
+  <si>
+    <t>NC_83</t>
+  </si>
+  <si>
+    <t>NC_84</t>
+  </si>
+  <si>
+    <t>NC_85</t>
+  </si>
+  <si>
+    <t>NC_86</t>
+  </si>
+  <si>
+    <t>NC_87</t>
+  </si>
+  <si>
+    <t>NC_88</t>
+  </si>
+  <si>
+    <t>NC_89</t>
+  </si>
+  <si>
+    <t>NC_90</t>
+  </si>
+  <si>
+    <t>NC_91</t>
+  </si>
+  <si>
+    <t>NC_92</t>
+  </si>
+  <si>
+    <t>NC_93</t>
+  </si>
+  <si>
+    <t>NC_94</t>
+  </si>
+  <si>
+    <t>NC_95</t>
+  </si>
+  <si>
+    <t>NC_96</t>
+  </si>
+  <si>
+    <t>NC_97</t>
+  </si>
+  <si>
+    <t>NC_98</t>
+  </si>
+  <si>
+    <t>NC_99</t>
+  </si>
+  <si>
+    <t>NC_100</t>
+  </si>
+  <si>
+    <t>NC_101</t>
+  </si>
+  <si>
+    <t>NC_102</t>
+  </si>
+  <si>
+    <t>NC_103</t>
+  </si>
+  <si>
+    <t>NC_104</t>
+  </si>
+  <si>
+    <t>NC_105</t>
+  </si>
+  <si>
+    <t>NC_106</t>
+  </si>
+  <si>
+    <t>NC_107</t>
+  </si>
+  <si>
+    <t>NC_108</t>
+  </si>
+  <si>
+    <t>NC_109</t>
+  </si>
+  <si>
+    <t>NC_110</t>
+  </si>
+  <si>
+    <t>NC_111</t>
+  </si>
+  <si>
+    <t>NC_112</t>
+  </si>
+  <si>
+    <t>NC_113</t>
+  </si>
+  <si>
+    <t>NC_114</t>
+  </si>
+  <si>
+    <t>NC_115</t>
+  </si>
+  <si>
+    <t>NC_116</t>
+  </si>
+  <si>
+    <t>NC_117</t>
+  </si>
+  <si>
+    <t>NC_118</t>
+  </si>
+  <si>
+    <t>NC_119</t>
+  </si>
+  <si>
+    <t>NC_120</t>
+  </si>
+  <si>
+    <t>NC_121</t>
+  </si>
+  <si>
+    <t>NC_122</t>
+  </si>
+  <si>
+    <t>NC_123</t>
+  </si>
+  <si>
+    <t>NC_124</t>
+  </si>
+  <si>
+    <t>NC_125</t>
+  </si>
+  <si>
+    <t>NC_126</t>
+  </si>
+  <si>
+    <t>NC_127</t>
+  </si>
+  <si>
+    <t>NC_128</t>
+  </si>
+  <si>
+    <t>NC_129</t>
+  </si>
+  <si>
+    <t>NC_130</t>
+  </si>
+  <si>
+    <t>NC_131</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>NCI_1</t>
+  </si>
+  <si>
+    <t>NCI_2</t>
+  </si>
+  <si>
+    <t>NCI_3</t>
+  </si>
+  <si>
+    <t>NCI_4</t>
+  </si>
+  <si>
+    <t>NCI_5</t>
+  </si>
+  <si>
+    <t>NCI_BLANK</t>
+  </si>
+  <si>
+    <t>document</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2373,10 +2800,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4677,10 +5119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4693,7 +5135,7 @@
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>532</v>
       </c>
@@ -4715,8 +5157,11 @@
       <c r="G1" s="27" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="18" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>388</v>
       </c>
@@ -4736,8 +5181,11 @@
       <c r="G2" s="10" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="10" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>387</v>
       </c>
@@ -4757,8 +5205,11 @@
       <c r="G3" s="10" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="10" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>384</v>
       </c>
@@ -4778,8 +5229,11 @@
       <c r="G4" s="10" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="10" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4798,6 +5252,9 @@
       </c>
       <c r="G5" s="10" t="s">
         <v>706</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -4806,1246 +5263,2690 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
-  <dimension ref="A1:D138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DB12B0-8474-5047-A986-AD63A7E57931}">
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="E1" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E4" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E5" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E7" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E8" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="E9" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E10" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E11" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E12" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E13" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E14" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E15" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E16" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E17" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E18" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E19" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E20" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E21" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="E22" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="E23" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E24" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E25" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E26" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E27" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E28" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E29" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E30" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E31" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E32" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E33" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E34" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E35" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E36" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E37" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E38" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E39" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E40" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E41" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E42" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E43" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E44" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E45" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E46" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E47" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E48" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E49" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E50" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E51" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E52" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E53" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E54" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E55" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E56" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E57" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E58" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E59" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E60" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E61" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E62" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E63" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E64" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E65" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E66" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E67" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E68" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E69" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E70" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E71" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E72" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E73" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E74" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E75" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E76" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E77" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E78" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D79" s="14" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E79" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E80" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E81" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E82" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E83" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E84" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D85" s="14" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E85" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E86" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E87" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E88" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E89" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E90" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E91" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E92" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E93" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E94" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E95" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E96" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E97" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E98" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D99" s="14" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E99" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E100" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E101" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E102" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E103" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D104" s="14" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E104" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E105" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B106" s="23"/>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D106" s="14" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E106" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D107" s="14" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E107" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E108" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D109" s="14" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E109" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D110" s="14" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E110" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D111" s="14" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E111" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D112" s="14" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E112" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D113" s="14" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E113" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D114" s="14" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E114" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D115" s="14" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E115" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D116" s="14" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E116" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D117" s="14" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E117" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D118" s="14" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E118" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D119" s="14" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E119" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D120" s="14" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E120" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D121" s="14" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E121" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D122" s="14" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E122" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D123" s="14" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E123" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D124" s="14" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E124" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D125" s="14" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E125" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E126" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D127" s="14" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E127" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D128" s="14" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E128" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B129" s="23"/>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D129" s="14" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E129" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D130" s="14" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E130" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D131" s="14" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E131" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="D132" s="14" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
+      <c r="E132" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B134" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="10" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="10" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B136" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B137" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="10" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6056,6 +7957,91 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="125.33203125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -6486,34 +8472,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -6633,16 +8619,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD347573-AC53-554C-ABBC-B12CFE0D6C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BBFE10-C785-5A4D-969F-5C34C7D6FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="500" windowWidth="53160" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="20100" yWindow="500" windowWidth="53160" windowHeight="27240" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="852">
   <si>
     <t>Screening</t>
   </si>
@@ -2633,12 +2633,21 @@
   <si>
     <t>document</t>
   </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2664,14 +2673,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2721,7 +2722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2748,10 +2749,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2794,17 +2791,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2819,6 +2807,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3146,12 +3143,12 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="25" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="23" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>446</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -3159,7 +3156,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3167,15 +3164,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -3183,7 +3180,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3191,7 +3188,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -3199,7 +3196,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -3207,15 +3204,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -3223,7 +3220,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3231,7 +3228,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3239,7 +3236,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3247,15 +3244,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3263,25 +3260,25 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>531</v>
       </c>
     </row>
@@ -3301,7 +3298,7 @@
       <c r="E17" t="s">
         <v>528</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
@@ -3324,7 +3321,7 @@
       <c r="E18" t="s">
         <v>529</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
@@ -3347,7 +3344,7 @@
       <c r="E19" t="s">
         <v>529</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
@@ -3370,7 +3367,7 @@
       <c r="E20" t="s">
         <v>529</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="24">
         <v>44988</v>
       </c>
       <c r="G20" t="s">
@@ -3393,7 +3390,7 @@
       <c r="E21" t="s">
         <v>529</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <v>44988</v>
       </c>
       <c r="G21" t="s">
@@ -3416,7 +3413,7 @@
       <c r="E22" t="s">
         <v>529</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="24">
         <v>44988</v>
       </c>
       <c r="G22" t="s">
@@ -3439,7 +3436,7 @@
       <c r="E23" t="s">
         <v>529</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="24">
         <v>44988</v>
       </c>
       <c r="G23" t="s">
@@ -3655,16 +3652,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3732,61 +3729,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>577</v>
       </c>
     </row>
@@ -3806,7 +3803,7 @@
       <c r="E2" t="s">
         <v>651</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>581</v>
       </c>
       <c r="G2" t="s">
@@ -3845,7 +3842,7 @@
       <c r="R2" t="s">
         <v>591</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="27" t="s">
         <v>592</v>
       </c>
     </row>
@@ -3865,7 +3862,7 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>581</v>
       </c>
       <c r="G3" t="s">
@@ -3904,7 +3901,7 @@
       <c r="R3" t="s">
         <v>591</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="27" t="s">
         <v>592</v>
       </c>
     </row>
@@ -3929,16 +3926,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3980,7 +3977,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3995,28 +3992,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4087,37 +4084,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4633,49 +4630,56 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -4686,32 +4690,44 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="J2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+      <c r="J3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -4722,19 +4738,25 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>135</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>136</v>
+      </c>
+      <c r="J5" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -4765,22 +4787,22 @@
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4853,28 +4875,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5010,19 +5032,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5121,13 +5143,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="25" customWidth="1"/>
+    <col min="1" max="1" width="11" style="23" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="5" width="25.5" customWidth="1"/>
@@ -5136,28 +5158,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>848</v>
       </c>
     </row>
@@ -5189,7 +5211,7 @@
       <c r="A3" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>536</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -5275,28 +5297,28 @@
     <col min="1" max="1" width="9.33203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46" style="14" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="46" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="28" t="s">
         <v>707</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="29" t="s">
         <v>709</v>
       </c>
     </row>
@@ -5307,16 +5329,16 @@
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>842</v>
       </c>
     </row>
@@ -5327,16 +5349,16 @@
       <c r="B3" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5347,16 +5369,16 @@
       <c r="B4" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5367,16 +5389,16 @@
       <c r="B5" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5387,16 +5409,16 @@
       <c r="B6" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5407,16 +5429,16 @@
       <c r="B7" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5427,16 +5449,16 @@
       <c r="B8" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5447,16 +5469,16 @@
       <c r="B9" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5464,19 +5486,19 @@
       <c r="A10" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>843</v>
       </c>
     </row>
@@ -5487,16 +5509,16 @@
       <c r="B11" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5507,16 +5529,16 @@
       <c r="B12" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5527,16 +5549,16 @@
       <c r="B13" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5547,16 +5569,16 @@
       <c r="B14" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5567,16 +5589,16 @@
       <c r="B15" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5587,16 +5609,16 @@
       <c r="B16" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5607,16 +5629,16 @@
       <c r="B17" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5627,16 +5649,16 @@
       <c r="B18" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5647,16 +5669,16 @@
       <c r="B19" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5667,16 +5689,16 @@
       <c r="B20" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5687,16 +5709,16 @@
       <c r="B21" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5707,16 +5729,16 @@
       <c r="B22" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5727,16 +5749,16 @@
       <c r="B23" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>844</v>
       </c>
     </row>
@@ -5747,16 +5769,16 @@
       <c r="B24" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>845</v>
       </c>
     </row>
@@ -5767,16 +5789,16 @@
       <c r="B25" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5787,16 +5809,16 @@
       <c r="B26" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E26" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5807,16 +5829,16 @@
       <c r="B27" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5827,16 +5849,16 @@
       <c r="B28" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5847,16 +5869,16 @@
       <c r="B29" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E29" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5867,16 +5889,16 @@
       <c r="B30" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5887,16 +5909,16 @@
       <c r="B31" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5907,16 +5929,16 @@
       <c r="B32" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5927,16 +5949,16 @@
       <c r="B33" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5947,16 +5969,16 @@
       <c r="B34" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E34" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5967,16 +5989,16 @@
       <c r="B35" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -5987,16 +6009,16 @@
       <c r="B36" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="C36" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6007,16 +6029,16 @@
       <c r="B37" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6027,16 +6049,16 @@
       <c r="B38" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6047,16 +6069,16 @@
       <c r="B39" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="C39" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6067,16 +6089,16 @@
       <c r="B40" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E40" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6087,16 +6109,16 @@
       <c r="B41" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E41" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6107,16 +6129,16 @@
       <c r="B42" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="E42" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6127,16 +6149,16 @@
       <c r="B43" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E43" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6147,16 +6169,16 @@
       <c r="B44" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F44" s="14" t="s">
+      <c r="E44" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>846</v>
       </c>
     </row>
@@ -6167,16 +6189,16 @@
       <c r="B45" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="C45" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E45" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F45" s="14" t="s">
+      <c r="E45" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6187,16 +6209,16 @@
       <c r="B46" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C46" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E46" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F46" s="14" t="s">
+      <c r="E46" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6207,16 +6229,16 @@
       <c r="B47" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D47" s="14" t="s">
+      <c r="C47" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E47" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F47" s="14" t="s">
+      <c r="E47" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6227,16 +6249,16 @@
       <c r="B48" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D48" s="14" t="s">
+      <c r="C48" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E48" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="E48" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6247,16 +6269,16 @@
       <c r="B49" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="C49" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E49" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F49" s="14" t="s">
+      <c r="E49" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6267,16 +6289,16 @@
       <c r="B50" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D50" s="14" t="s">
+      <c r="C50" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E50" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F50" s="14" t="s">
+      <c r="E50" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6287,16 +6309,16 @@
       <c r="B51" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C51" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D51" s="14" t="s">
+      <c r="C51" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="E51" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F51" s="14" t="s">
+      <c r="E51" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6307,16 +6329,16 @@
       <c r="B52" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C52" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D52" s="14" t="s">
+      <c r="C52" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F52" s="14" t="s">
+      <c r="E52" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6327,16 +6349,16 @@
       <c r="B53" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C53" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="C53" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F53" s="14" t="s">
+      <c r="E53" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6347,16 +6369,16 @@
       <c r="B54" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D54" s="14" t="s">
+      <c r="C54" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="E54" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F54" s="14" t="s">
+      <c r="E54" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6367,16 +6389,16 @@
       <c r="B55" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D55" s="14" t="s">
+      <c r="C55" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="E55" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F55" s="14" t="s">
+      <c r="E55" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F55" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6387,16 +6409,16 @@
       <c r="B56" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C56" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D56" s="14" t="s">
+      <c r="C56" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E56" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F56" s="14" t="s">
+      <c r="E56" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6407,16 +6429,16 @@
       <c r="B57" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C57" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D57" s="14" t="s">
+      <c r="C57" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E57" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F57" s="14" t="s">
+      <c r="E57" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6427,16 +6449,16 @@
       <c r="B58" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D58" s="14" t="s">
+      <c r="C58" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E58" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F58" s="14" t="s">
+      <c r="E58" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6447,16 +6469,16 @@
       <c r="B59" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C59" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D59" s="14" t="s">
+      <c r="C59" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E59" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F59" s="14" t="s">
+      <c r="E59" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6467,16 +6489,16 @@
       <c r="B60" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D60" s="14" t="s">
+      <c r="C60" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E60" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F60" s="14" t="s">
+      <c r="E60" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6487,16 +6509,16 @@
       <c r="B61" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C61" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D61" s="14" t="s">
+      <c r="C61" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E61" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F61" s="14" t="s">
+      <c r="E61" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6507,16 +6529,16 @@
       <c r="B62" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D62" s="14" t="s">
+      <c r="C62" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="E62" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F62" s="14" t="s">
+      <c r="E62" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F62" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6527,16 +6549,16 @@
       <c r="B63" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C63" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D63" s="14" t="s">
+      <c r="C63" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E63" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F63" s="14" t="s">
+      <c r="E63" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6547,16 +6569,16 @@
       <c r="B64" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C64" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D64" s="14" t="s">
+      <c r="C64" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E64" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F64" s="14" t="s">
+      <c r="E64" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F64" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6567,16 +6589,16 @@
       <c r="B65" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C65" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D65" s="14" t="s">
+      <c r="C65" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="E65" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F65" s="14" t="s">
+      <c r="E65" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6587,16 +6609,16 @@
       <c r="B66" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D66" s="14" t="s">
+      <c r="C66" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E66" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F66" s="14" t="s">
+      <c r="E66" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6607,16 +6629,16 @@
       <c r="B67" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C67" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D67" s="14" t="s">
+      <c r="C67" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D67" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="E67" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F67" s="14" t="s">
+      <c r="E67" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F67" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6627,16 +6649,16 @@
       <c r="B68" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C68" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D68" s="14" t="s">
+      <c r="C68" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="E68" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F68" s="14" t="s">
+      <c r="E68" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6647,16 +6669,16 @@
       <c r="B69" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C69" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D69" s="14" t="s">
+      <c r="C69" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E69" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F69" s="14" t="s">
+      <c r="E69" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F69" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6667,16 +6689,16 @@
       <c r="B70" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C70" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D70" s="14" t="s">
+      <c r="C70" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="E70" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F70" s="14" t="s">
+      <c r="E70" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6687,16 +6709,16 @@
       <c r="B71" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C71" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D71" s="14" t="s">
+      <c r="C71" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="E71" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F71" s="14" t="s">
+      <c r="E71" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6707,16 +6729,16 @@
       <c r="B72" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C72" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D72" s="14" t="s">
+      <c r="C72" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E72" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F72" s="14" t="s">
+      <c r="E72" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6727,16 +6749,16 @@
       <c r="B73" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C73" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="E73" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F73" s="14" t="s">
+      <c r="E73" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6747,16 +6769,16 @@
       <c r="B74" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C74" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D74" s="14" t="s">
+      <c r="C74" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="E74" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F74" s="14" t="s">
+      <c r="E74" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6767,16 +6789,16 @@
       <c r="B75" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C75" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E75" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F75" s="14" t="s">
+      <c r="E75" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F75" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6787,16 +6809,16 @@
       <c r="B76" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C76" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D76" s="14" t="s">
+      <c r="C76" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E76" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F76" s="14" t="s">
+      <c r="E76" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6807,16 +6829,16 @@
       <c r="B77" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D77" s="14" t="s">
+      <c r="C77" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D77" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E77" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F77" s="14" t="s">
+      <c r="E77" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F77" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6827,16 +6849,16 @@
       <c r="B78" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C78" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E78" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F78" s="14" t="s">
+      <c r="E78" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F78" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6847,16 +6869,16 @@
       <c r="B79" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C79" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D79" s="14" t="s">
+      <c r="C79" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E79" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F79" s="14" t="s">
+      <c r="E79" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F79" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6867,16 +6889,16 @@
       <c r="B80" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C80" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D80" s="14" t="s">
+      <c r="C80" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D80" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E80" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F80" s="14" t="s">
+      <c r="E80" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F80" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6887,16 +6909,16 @@
       <c r="B81" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C81" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D81" s="14" t="s">
+      <c r="C81" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E81" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F81" s="14" t="s">
+      <c r="E81" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F81" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6907,16 +6929,16 @@
       <c r="B82" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C82" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D82" s="14" t="s">
+      <c r="C82" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="E82" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F82" s="14" t="s">
+      <c r="E82" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6927,16 +6949,16 @@
       <c r="B83" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C83" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D83" s="14" t="s">
+      <c r="C83" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E83" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F83" s="14" t="s">
+      <c r="E83" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6947,16 +6969,16 @@
       <c r="B84" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D84" s="14" t="s">
+      <c r="C84" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="E84" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F84" s="14" t="s">
+      <c r="E84" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F84" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6967,16 +6989,16 @@
       <c r="B85" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C85" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D85" s="14" t="s">
+      <c r="C85" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E85" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F85" s="14" t="s">
+      <c r="E85" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6987,16 +7009,16 @@
       <c r="B86" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C86" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D86" s="14" t="s">
+      <c r="C86" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="E86" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F86" s="14" t="s">
+      <c r="E86" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F86" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7007,16 +7029,16 @@
       <c r="B87" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C87" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D87" s="14" t="s">
+      <c r="C87" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D87" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E87" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F87" s="14" t="s">
+      <c r="E87" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F87" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7027,16 +7049,16 @@
       <c r="B88" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C88" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D88" s="14" t="s">
+      <c r="C88" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D88" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="E88" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F88" s="14" t="s">
+      <c r="E88" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F88" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7047,16 +7069,16 @@
       <c r="B89" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D89" s="14" t="s">
+      <c r="C89" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D89" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E89" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F89" s="14" t="s">
+      <c r="E89" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F89" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7067,16 +7089,16 @@
       <c r="B90" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C90" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D90" s="14" t="s">
+      <c r="C90" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D90" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E90" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F90" s="14" t="s">
+      <c r="E90" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F90" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7087,16 +7109,16 @@
       <c r="B91" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C91" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D91" s="14" t="s">
+      <c r="C91" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E91" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F91" s="14" t="s">
+      <c r="E91" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F91" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7107,16 +7129,16 @@
       <c r="B92" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C92" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D92" s="14" t="s">
+      <c r="C92" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D92" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E92" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F92" s="14" t="s">
+      <c r="E92" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F92" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7127,16 +7149,16 @@
       <c r="B93" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C93" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D93" s="14" t="s">
+      <c r="C93" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E93" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F93" s="14" t="s">
+      <c r="E93" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F93" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7147,16 +7169,16 @@
       <c r="B94" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C94" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D94" s="14" t="s">
+      <c r="C94" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="E94" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F94" s="14" t="s">
+      <c r="E94" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F94" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7167,16 +7189,16 @@
       <c r="B95" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C95" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D95" s="14" t="s">
+      <c r="C95" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E95" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F95" s="14" t="s">
+      <c r="E95" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F95" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7187,16 +7209,16 @@
       <c r="B96" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C96" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D96" s="14" t="s">
+      <c r="C96" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="E96" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F96" s="14" t="s">
+      <c r="E96" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F96" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7207,16 +7229,16 @@
       <c r="B97" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C97" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D97" s="14" t="s">
+      <c r="C97" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D97" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="E97" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F97" s="14" t="s">
+      <c r="E97" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F97" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7227,16 +7249,16 @@
       <c r="B98" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C98" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D98" s="14" t="s">
+      <c r="C98" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D98" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="E98" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F98" s="14" t="s">
+      <c r="E98" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F98" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7247,16 +7269,16 @@
       <c r="B99" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C99" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D99" s="14" t="s">
+      <c r="C99" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D99" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E99" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F99" s="14" t="s">
+      <c r="E99" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F99" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7267,16 +7289,16 @@
       <c r="B100" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C100" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D100" s="14" t="s">
+      <c r="C100" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E100" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F100" s="14" t="s">
+      <c r="E100" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F100" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7287,16 +7309,16 @@
       <c r="B101" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C101" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D101" s="14" t="s">
+      <c r="C101" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E101" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F101" s="14" t="s">
+      <c r="E101" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F101" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7307,16 +7329,16 @@
       <c r="B102" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C102" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D102" s="14" t="s">
+      <c r="C102" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D102" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="E102" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F102" s="14" t="s">
+      <c r="E102" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7327,16 +7349,16 @@
       <c r="B103" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C103" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D103" s="14" t="s">
+      <c r="C103" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D103" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="E103" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F103" s="14" t="s">
+      <c r="E103" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F103" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7347,16 +7369,16 @@
       <c r="B104" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C104" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D104" s="14" t="s">
+      <c r="C104" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D104" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="E104" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F104" s="14" t="s">
+      <c r="E104" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7367,16 +7389,16 @@
       <c r="B105" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C105" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D105" s="14" t="s">
+      <c r="C105" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D105" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="E105" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F105" s="14" t="s">
+      <c r="E105" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F105" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7387,16 +7409,16 @@
       <c r="B106" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C106" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D106" s="14" t="s">
+      <c r="C106" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D106" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="E106" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F106" s="14" t="s">
+      <c r="E106" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F106" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7407,16 +7429,16 @@
       <c r="B107" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C107" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D107" s="14" t="s">
+      <c r="C107" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D107" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E107" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F107" s="14" t="s">
+      <c r="E107" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F107" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7427,16 +7449,16 @@
       <c r="B108" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C108" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D108" s="14" t="s">
+      <c r="C108" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D108" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="E108" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F108" s="14" t="s">
+      <c r="E108" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F108" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7447,16 +7469,16 @@
       <c r="B109" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C109" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D109" s="14" t="s">
+      <c r="C109" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D109" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E109" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F109" s="14" t="s">
+      <c r="E109" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F109" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7467,16 +7489,16 @@
       <c r="B110" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C110" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D110" s="14" t="s">
+      <c r="C110" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D110" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E110" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F110" s="14" t="s">
+      <c r="E110" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F110" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7487,16 +7509,16 @@
       <c r="B111" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="C111" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D111" s="14" t="s">
+      <c r="C111" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D111" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E111" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F111" s="14" t="s">
+      <c r="E111" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F111" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7507,16 +7529,16 @@
       <c r="B112" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C112" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D112" s="14" t="s">
+      <c r="C112" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E112" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F112" s="14" t="s">
+      <c r="E112" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F112" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7527,16 +7549,16 @@
       <c r="B113" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C113" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D113" s="14" t="s">
+      <c r="C113" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D113" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E113" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F113" s="14" t="s">
+      <c r="E113" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F113" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7547,16 +7569,16 @@
       <c r="B114" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="C114" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D114" s="14" t="s">
+      <c r="C114" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="E114" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F114" s="14" t="s">
+      <c r="E114" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F114" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7567,16 +7589,16 @@
       <c r="B115" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C115" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D115" s="14" t="s">
+      <c r="C115" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E115" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F115" s="14" t="s">
+      <c r="E115" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F115" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7587,16 +7609,16 @@
       <c r="B116" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C116" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D116" s="14" t="s">
+      <c r="C116" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D116" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="E116" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F116" s="14" t="s">
+      <c r="E116" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F116" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7607,16 +7629,16 @@
       <c r="B117" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C117" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D117" s="14" t="s">
+      <c r="C117" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D117" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E117" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F117" s="14" t="s">
+      <c r="E117" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F117" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7627,16 +7649,16 @@
       <c r="B118" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C118" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D118" s="14" t="s">
+      <c r="C118" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D118" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="E118" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F118" s="14" t="s">
+      <c r="E118" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F118" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7647,16 +7669,16 @@
       <c r="B119" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C119" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D119" s="14" t="s">
+      <c r="C119" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D119" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E119" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F119" s="14" t="s">
+      <c r="E119" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F119" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7667,16 +7689,16 @@
       <c r="B120" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C120" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D120" s="14" t="s">
+      <c r="C120" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D120" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E120" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F120" s="14" t="s">
+      <c r="E120" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F120" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7687,16 +7709,16 @@
       <c r="B121" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C121" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D121" s="14" t="s">
+      <c r="C121" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D121" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E121" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F121" s="14" t="s">
+      <c r="E121" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F121" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7707,16 +7729,16 @@
       <c r="B122" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C122" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D122" s="14" t="s">
+      <c r="C122" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D122" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E122" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F122" s="14" t="s">
+      <c r="E122" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F122" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7727,16 +7749,16 @@
       <c r="B123" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C123" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D123" s="14" t="s">
+      <c r="C123" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D123" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="E123" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F123" s="14" t="s">
+      <c r="E123" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F123" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7747,16 +7769,16 @@
       <c r="B124" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C124" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D124" s="14" t="s">
+      <c r="C124" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="E124" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F124" s="14" t="s">
+      <c r="E124" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F124" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7767,16 +7789,16 @@
       <c r="B125" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C125" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D125" s="14" t="s">
+      <c r="C125" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D125" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E125" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F125" s="14" t="s">
+      <c r="E125" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F125" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7787,16 +7809,16 @@
       <c r="B126" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C126" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D126" s="14" t="s">
+      <c r="C126" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="E126" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F126" s="14" t="s">
+      <c r="E126" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F126" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7807,16 +7829,16 @@
       <c r="B127" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C127" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D127" s="14" t="s">
+      <c r="C127" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D127" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E127" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F127" s="14" t="s">
+      <c r="E127" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F127" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7827,16 +7849,16 @@
       <c r="B128" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C128" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D128" s="14" t="s">
+      <c r="C128" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E128" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F128" s="14" t="s">
+      <c r="E128" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F128" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7847,16 +7869,16 @@
       <c r="B129" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C129" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D129" s="14" t="s">
+      <c r="C129" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D129" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="E129" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F129" s="14" t="s">
+      <c r="E129" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F129" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7867,16 +7889,16 @@
       <c r="B130" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C130" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D130" s="14" t="s">
+      <c r="C130" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D130" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="E130" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F130" s="14" t="s">
+      <c r="E130" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F130" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7887,16 +7909,16 @@
       <c r="B131" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C131" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D131" s="14" t="s">
+      <c r="C131" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D131" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="E131" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F131" s="14" t="s">
+      <c r="E131" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F131" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7907,16 +7929,16 @@
       <c r="B132" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C132" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D132" s="14" t="s">
+      <c r="C132" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="E132" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="F132" s="14" t="s">
+      <c r="E132" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="F132" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7971,15 +7993,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>842</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -7995,7 +8017,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>844</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -8011,7 +8033,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>846</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -8019,21 +8041,21 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8094,25 +8116,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>672</v>
       </c>
     </row>
@@ -8240,23 +8262,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="25" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="23" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>661</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8367,22 +8389,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8447,115 +8469,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -8619,16 +8641,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8652,19 +8674,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>235</v>
       </c>
     </row>
@@ -8726,13 +8748,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8806,13 +8828,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>446</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -8832,13 +8854,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -8858,13 +8880,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>519</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -8884,8 +8906,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -8905,8 +8927,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>620</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -8926,8 +8948,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>622</v>
       </c>
       <c r="D6" s="2"/>
@@ -8939,7 +8961,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>623</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -8961,7 +8983,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>624</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -8981,13 +9003,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>184</v>
       </c>
     </row>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BBFE10-C785-5A4D-969F-5C34C7D6FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A21915-522E-DB47-9565-0BE6242EB8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20100" yWindow="500" windowWidth="53160" windowHeight="27240" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -4633,7 +4633,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,40 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A21915-522E-DB47-9565-0BE6242EB8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85CB58B-6860-7C40-A88C-075AAC65FA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="500" windowWidth="53160" windowHeight="27240" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="18" r:id="rId2"/>
     <sheet name="amendmentChanges" sheetId="22" r:id="rId3"/>
     <sheet name="amendmentImpact" sheetId="21" r:id="rId4"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId5"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId6"/>
-    <sheet name="studyDesignArms" sheetId="15" r:id="rId7"/>
-    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId8"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
-    <sheet name="studyDesignTiming" sheetId="20" r:id="rId10"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId11"/>
-    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId12"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId13"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId14"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId15"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId16"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId17"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId18"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId19"/>
-    <sheet name="document" sheetId="23" r:id="rId20"/>
-    <sheet name="documentContent" sheetId="17" r:id="rId21"/>
-    <sheet name="configuration" sheetId="10" r:id="rId22"/>
+    <sheet name="studyOrganizations" sheetId="24" r:id="rId5"/>
+    <sheet name="studyIdentifiers" sheetId="3" r:id="rId6"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId7"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId8"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId9"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId10"/>
+    <sheet name="studyDesignTiming" sheetId="20" r:id="rId11"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId12"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId13"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId14"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId15"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId16"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId17"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId18"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId19"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId20"/>
+    <sheet name="document" sheetId="23" r:id="rId21"/>
+    <sheet name="documentContent" sheetId="17" r:id="rId22"/>
+    <sheet name="configuration" sheetId="10" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="852">
   <si>
     <t>Screening</t>
   </si>
@@ -113,18 +114,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>organisationIdentifierScheme</t>
-  </si>
-  <si>
-    <t>organisationIdentifier</t>
-  </si>
-  <si>
-    <t>organisationName</t>
-  </si>
-  <si>
-    <t>organisationType</t>
-  </si>
-  <si>
     <t>studyIdentifier</t>
   </si>
   <si>
@@ -183,9 +172,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>organisationAddress</t>
   </si>
   <si>
     <t>BC:Age, BC:Sex, BC:Race, BC:Body Weight</t>
@@ -2641,6 +2627,21 @@
   </si>
   <si>
     <t>populationSubset</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>ACME</t>
+  </si>
+  <si>
+    <t>identifierScheme</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -2812,10 +2813,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3149,10 +3150,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3160,7 +3161,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3176,7 +3177,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3184,68 +3185,68 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -3253,194 +3254,194 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C17" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E17" t="s">
         <v>523</v>
-      </c>
-      <c r="E17" t="s">
-        <v>528</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C18" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E18" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C19" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E19" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C20" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D20" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E20" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F20" s="24">
         <v>44988</v>
       </c>
       <c r="G20" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C21" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D21" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E21" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F21" s="24">
         <v>44988</v>
       </c>
       <c r="G21" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C22" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D22" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E22" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F22" s="24">
         <v>44988</v>
       </c>
       <c r="G22" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C23" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D23" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E23" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F23" s="24">
         <v>44988</v>
       </c>
       <c r="G23" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -3449,6 +3450,266 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97585A89-0DFF-DC48-9F27-BA22C5F09D3B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3466,135 +3727,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B5" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C5" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E5" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F5" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G5" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H5" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3602,31 +3863,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" t="s">
+        <v>609</v>
+      </c>
+      <c r="F6" t="s">
+        <v>607</v>
+      </c>
+      <c r="G6" t="s">
+        <v>644</v>
+      </c>
+      <c r="H6" t="s">
+        <v>629</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="E6" t="s">
-        <v>614</v>
-      </c>
-      <c r="F6" t="s">
-        <v>612</v>
-      </c>
-      <c r="G6" t="s">
-        <v>649</v>
-      </c>
-      <c r="H6" t="s">
-        <v>634</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -3634,7 +3895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3653,16 +3914,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3670,7 +3931,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3678,13 +3939,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3696,7 +3957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FAA733-5000-A241-831E-63C6565D009F}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3730,179 +3991,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>572</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" t="s">
+        <v>577</v>
+      </c>
+      <c r="H2" t="s">
+        <v>647</v>
+      </c>
+      <c r="I2" t="s">
         <v>578</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>579</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>580</v>
       </c>
-      <c r="E2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="L2" t="s">
         <v>581</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>582</v>
       </c>
-      <c r="H2" t="s">
-        <v>652</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>583</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>584</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>585</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" t="s">
         <v>586</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" s="27" t="s">
         <v>587</v>
-      </c>
-      <c r="N2" t="s">
-        <v>588</v>
-      </c>
-      <c r="O2" t="s">
-        <v>589</v>
-      </c>
-      <c r="P2" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" t="s">
-        <v>591</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="G3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I3" t="s">
+        <v>578</v>
+      </c>
+      <c r="J3" t="s">
+        <v>590</v>
+      </c>
+      <c r="K3" t="s">
+        <v>591</v>
+      </c>
+      <c r="L3" t="s">
+        <v>592</v>
+      </c>
+      <c r="M3" t="s">
+        <v>582</v>
+      </c>
+      <c r="N3" t="s">
+        <v>583</v>
+      </c>
+      <c r="O3" t="s">
+        <v>584</v>
+      </c>
+      <c r="P3" t="s">
         <v>593</v>
       </c>
-      <c r="C3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D3" t="s">
-        <v>580</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="G3" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" t="s">
-        <v>653</v>
-      </c>
-      <c r="I3" t="s">
-        <v>583</v>
-      </c>
-      <c r="J3" t="s">
-        <v>595</v>
-      </c>
-      <c r="K3" t="s">
-        <v>596</v>
-      </c>
-      <c r="L3" t="s">
-        <v>597</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R3" t="s">
+        <v>586</v>
+      </c>
+      <c r="S3" s="27" t="s">
         <v>587</v>
-      </c>
-      <c r="N3" t="s">
-        <v>588</v>
-      </c>
-      <c r="O3" t="s">
-        <v>589</v>
-      </c>
-      <c r="P3" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" t="s">
-        <v>591</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +4171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3927,44 +4188,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3993,36 +4254,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4031,29 +4292,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G4" t="s">
         <v>604</v>
-      </c>
-      <c r="B4" t="s">
-        <v>606</v>
-      </c>
-      <c r="G4" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -4061,7 +4322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -4085,85 +4346,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4172,16 +4433,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4190,16 +4451,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4208,16 +4469,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4226,16 +4487,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4244,16 +4505,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -4262,16 +4523,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4280,16 +4541,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -4298,16 +4559,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -4316,16 +4577,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4334,16 +4595,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4628,11 +4889,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4649,114 +4910,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -4764,7 +5025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4785,65 +5046,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4856,7 +5117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -4876,261 +5137,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5159,100 +5296,100 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5260,23 +5397,23 @@
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -5285,6 +5422,130 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DB12B0-8474-5047-A986-AD63A7E57931}">
   <dimension ref="A1:F138"/>
   <sheetViews>
@@ -5304,2672 +5565,2672 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C44" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>841</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B134" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +8239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -7994,55 +8255,55 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8063,7 +8324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -8078,18 +8339,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8117,116 +8378,116 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F3" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E4" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F4" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E5" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F5" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G5" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E6" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G6" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8234,16 +8495,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -8270,86 +8531,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D5" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8357,13 +8618,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -8372,80 +8633,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EEE72-904E-5840-AC35-E8F034077FC1}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>18</v>
+        <v>849</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>20</v>
+        <v>441</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>42</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>848</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8454,6 +8716,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -8470,10 +8775,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -8481,10 +8786,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -8492,43 +8797,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+        <v>28</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -8536,10 +8841,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -8547,10 +8852,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -8558,10 +8863,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -8569,7 +8874,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -8578,10 +8883,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -8590,41 +8895,41 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -8641,22 +8946,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8675,53 +8980,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8732,7 +9037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -8749,24 +9054,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8774,10 +9079,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8785,284 +9090,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="C6" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85CB58B-6860-7C40-A88C-075AAC65FA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97135FEB-FDE5-3A41-9806-A9EC7C9B1F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97135FEB-FDE5-3A41-9806-A9EC7C9B1F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31057DE4-7012-AF48-B327-D2CAD3E57832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -8637,7 +8637,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8720,7 +8720,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31057DE4-7012-AF48-B327-D2CAD3E57832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88065AB-D14F-8844-A7FD-F1056132B478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51580" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="853">
   <si>
     <t>Screening</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>interventionModel</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>DUNS</t>
@@ -2642,6 +2639,12 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>spare</t>
   </si>
 </sst>
 </file>
@@ -2723,7 +2726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2811,12 +2814,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3135,7 +3132,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3150,10 +3147,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3177,7 +3174,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3185,68 +3182,68 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -3254,194 +3251,194 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>515</v>
-      </c>
       <c r="G16" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C17" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>517</v>
       </c>
-      <c r="D17" t="s">
-        <v>518</v>
-      </c>
       <c r="E17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C18" t="s">
         <v>520</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>521</v>
       </c>
-      <c r="D18" t="s">
-        <v>522</v>
-      </c>
       <c r="E18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C19" t="s">
         <v>520</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>521</v>
       </c>
-      <c r="D19" t="s">
-        <v>522</v>
-      </c>
       <c r="E19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C20" t="s">
         <v>696</v>
       </c>
-      <c r="C20" t="s">
-        <v>697</v>
-      </c>
       <c r="D20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F20" s="24">
         <v>44988</v>
       </c>
       <c r="G20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F21" s="24">
         <v>44988</v>
       </c>
       <c r="G21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F22" s="24">
         <v>44988</v>
       </c>
       <c r="G22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F23" s="24">
         <v>44988</v>
       </c>
       <c r="G23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -3471,68 +3468,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3541,58 +3538,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3604,7 +3601,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3626,22 +3623,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3652,7 +3649,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3661,7 +3658,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3727,135 +3724,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2" t="s">
         <v>625</v>
-      </c>
-      <c r="B2" t="s">
-        <v>626</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G2" t="s">
         <v>627</v>
       </c>
-      <c r="E2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>628</v>
-      </c>
-      <c r="H2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B3" t="s">
         <v>630</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>631</v>
       </c>
-      <c r="C3" t="s">
-        <v>632</v>
-      </c>
       <c r="D3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F3" t="s">
         <v>606</v>
-      </c>
-      <c r="F3" t="s">
-        <v>607</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" t="s">
         <v>634</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D4" t="s">
         <v>635</v>
       </c>
-      <c r="C4" t="s">
-        <v>611</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G4" t="s">
         <v>636</v>
-      </c>
-      <c r="E4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F4" t="s">
-        <v>607</v>
-      </c>
-      <c r="G4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B5" t="s">
         <v>638</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D5" t="s">
         <v>639</v>
       </c>
-      <c r="C5" t="s">
-        <v>612</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G5" t="s">
         <v>640</v>
       </c>
-      <c r="E5" t="s">
-        <v>608</v>
-      </c>
-      <c r="F5" t="s">
-        <v>607</v>
-      </c>
-      <c r="G5" t="s">
-        <v>641</v>
-      </c>
       <c r="H5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3863,31 +3860,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B6" t="s">
         <v>642</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F6" t="s">
+        <v>606</v>
+      </c>
+      <c r="G6" t="s">
         <v>643</v>
       </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" t="s">
-        <v>640</v>
-      </c>
-      <c r="E6" t="s">
-        <v>609</v>
-      </c>
-      <c r="F6" t="s">
-        <v>607</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>628</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="H6" t="s">
-        <v>629</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -3914,16 +3911,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3931,7 +3928,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3939,13 +3936,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
         <v>241</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3991,179 +3988,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>571</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" t="s">
         <v>573</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>574</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H2" t="s">
         <v>646</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>577</v>
       </c>
-      <c r="H2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>578</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>579</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>580</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>581</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>582</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>583</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>584</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" t="s">
         <v>585</v>
       </c>
-      <c r="Q2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="27" t="s">
         <v>586</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" t="s">
         <v>588</v>
       </c>
-      <c r="C3" t="s">
-        <v>589</v>
-      </c>
       <c r="D3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="G3" t="s">
         <v>576</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>647</v>
+      </c>
+      <c r="I3" t="s">
         <v>577</v>
       </c>
-      <c r="H3" t="s">
-        <v>648</v>
-      </c>
-      <c r="I3" t="s">
-        <v>578</v>
-      </c>
       <c r="J3" t="s">
+        <v>589</v>
+      </c>
+      <c r="K3" t="s">
         <v>590</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>591</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>581</v>
+      </c>
+      <c r="N3" t="s">
+        <v>582</v>
+      </c>
+      <c r="O3" t="s">
+        <v>583</v>
+      </c>
+      <c r="P3" t="s">
         <v>592</v>
       </c>
-      <c r="M3" t="s">
-        <v>582</v>
-      </c>
-      <c r="N3" t="s">
-        <v>583</v>
-      </c>
-      <c r="O3" t="s">
-        <v>584</v>
-      </c>
-      <c r="P3" t="s">
-        <v>593</v>
-      </c>
       <c r="Q3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R3" t="s">
+        <v>585</v>
+      </c>
+      <c r="S3" s="27" t="s">
         <v>586</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -4188,44 +4185,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" t="s">
         <v>555</v>
       </c>
-      <c r="C2" t="s">
-        <v>556</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" t="s">
         <v>557</v>
       </c>
-      <c r="C3" t="s">
-        <v>558</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4254,36 +4251,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>596</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" t="s">
         <v>597</v>
-      </c>
-      <c r="B2" t="s">
-        <v>598</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4292,29 +4289,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" t="s">
         <v>599</v>
       </c>
-      <c r="B3" t="s">
-        <v>600</v>
-      </c>
       <c r="G3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -4346,85 +4343,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -4433,16 +4430,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4451,16 +4448,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4469,16 +4466,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4487,16 +4484,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4505,16 +4502,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -4523,16 +4520,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4541,16 +4538,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -4559,16 +4556,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -4577,16 +4574,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4595,16 +4592,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4910,114 +4907,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>846</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>92</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
-      </c>
       <c r="J2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E5" t="s">
         <v>128</v>
       </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>129</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
         <v>130</v>
       </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>131</v>
-      </c>
       <c r="J5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -5046,65 +5043,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
         <v>150</v>
       </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>152</v>
-      </c>
-      <c r="G3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5137,137 +5134,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5296,100 +5293,100 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>530</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>537</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>538</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5397,23 +5394,23 @@
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>541</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -5439,104 +5436,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>183</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5565,2672 +5562,2672 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>702</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>703</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>836</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>510</v>
-      </c>
       <c r="E10" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -8255,55 +8252,55 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8339,18 +8336,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8378,116 +8375,116 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>654</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>655</v>
-      </c>
       <c r="F1" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F2" t="s">
         <v>674</v>
       </c>
-      <c r="F2" t="s">
-        <v>675</v>
-      </c>
       <c r="G2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8495,16 +8492,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -8531,86 +8528,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8618,13 +8615,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" t="s">
         <v>662</v>
-      </c>
-      <c r="C7" t="s">
-        <v>533</v>
-      </c>
-      <c r="D7" t="s">
-        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -8636,7 +8633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EEE72-904E-5840-AC35-E8F034077FC1}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -8652,22 +8649,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>850</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8684,30 +8681,30 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>848</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -8734,7 +8731,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8747,10 +8744,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -8760,10 +8757,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8775,10 +8772,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -8786,10 +8783,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -8799,41 +8796,41 @@
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -8841,10 +8838,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>33</v>
+        <v>851</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -8855,7 +8852,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -8863,10 +8860,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -8874,88 +8871,122 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8980,19 +9011,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9000,16 +9031,16 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9020,13 +9051,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9054,13 +9085,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9068,10 +9099,10 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9079,10 +9110,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9090,10 +9121,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9101,10 +9132,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88065AB-D14F-8844-A7FD-F1056132B478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40084D1B-9FCD-C24B-BF75-15672F4C1595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51580" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="862">
   <si>
     <t>Screening</t>
   </si>
@@ -2645,6 +2645,33 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>AMEND_2</t>
+  </si>
+  <si>
+    <t>AMEND_3</t>
+  </si>
+  <si>
+    <t>AMEND_4</t>
+  </si>
+  <si>
+    <t>Amendment 4</t>
+  </si>
+  <si>
+    <t>Amendment One</t>
+  </si>
+  <si>
+    <t>Amendment Two</t>
+  </si>
+  <si>
+    <t>Amendment Three</t>
+  </si>
+  <si>
+    <t>Amendment Four</t>
   </si>
 </sst>
 </file>
@@ -5275,145 +5302,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="23" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>861</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>842</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8759,7 +8834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40084D1B-9FCD-C24B-BF75-15672F4C1595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B2607B-BF94-8149-9B3A-5F16C1A28CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="5" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2032,12 +2032,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>geographicScope</t>
   </si>
   <si>
@@ -2672,6 +2666,12 @@
   </si>
   <si>
     <t>Amendment Four</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -3312,7 +3312,7 @@
         <v>515</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C17" t="s">
         <v>516</v>
@@ -3335,7 +3335,7 @@
         <v>519</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C18" t="s">
         <v>520</v>
@@ -3358,7 +3358,7 @@
         <v>519</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C19" t="s">
         <v>520</v>
@@ -3378,13 +3378,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D20" t="s">
         <v>521</v>
@@ -3396,18 +3396,18 @@
         <v>44988</v>
       </c>
       <c r="G20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D21" t="s">
         <v>521</v>
@@ -3419,18 +3419,18 @@
         <v>44988</v>
       </c>
       <c r="G21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C22" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D22" t="s">
         <v>521</v>
@@ -3442,18 +3442,18 @@
         <v>44988</v>
       </c>
       <c r="G22" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D23" t="s">
         <v>521</v>
@@ -3465,7 +3465,7 @@
         <v>44988</v>
       </c>
       <c r="G23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4350,8 +4350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4413,7 +4413,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>648</v>
+        <v>860</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>77</v>
@@ -4437,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>649</v>
+        <v>861</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>78</v>
@@ -4943,7 +4943,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>90</v>
@@ -4961,7 +4961,7 @@
         <v>91</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5001,7 +5001,7 @@
         <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
         <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5041,7 +5041,7 @@
         <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -5304,7 +5304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5343,7 +5343,7 @@
         <v>529</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>538</v>
@@ -5352,18 +5352,18 @@
         <v>514</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>382</v>
@@ -5382,21 +5382,21 @@
         <v>541</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>381</v>
@@ -5409,27 +5409,27 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>542</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>378</v>
@@ -5448,21 +5448,21 @@
         <v>543</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
@@ -5475,16 +5475,16 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>544</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -5643,2636 +5643,2636 @@
         <v>480</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>242</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>375</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>249</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>251</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>378</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>245</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>379</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>252</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>380</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>253</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>381</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>508</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>509</v>
       </c>
       <c r="E10" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>835</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>382</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>247</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>383</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>254</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>374</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>255</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>384</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>256</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>385</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>257</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>258</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>259</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>463</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>260</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>464</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>261</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>441</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>465</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>262</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>466</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>263</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>467</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>468</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>265</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>469</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>266</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>267</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>431</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>268</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>269</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>433</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>270</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>470</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>271</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>442</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>272</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>471</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>273</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>274</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>473</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>275</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>388</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>276</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>474</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>277</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>475</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>278</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>389</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>279</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>280</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>281</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>476</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>282</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>283</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>285</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>477</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>286</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>478</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>287</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>288</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>289</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>397</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>290</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>291</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>443</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>373</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>479</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>292</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>399</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>293</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>294</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>401</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>295</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>481</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>296</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>482</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>297</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>298</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>444</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>299</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>300</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>301</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>486</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>302</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>434</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>303</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>402</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>304</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>403</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>305</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>306</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>405</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>307</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>487</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>308</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>435</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>309</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>310</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>407</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>311</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>312</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>409</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>313</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>314</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>411</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>315</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>316</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>317</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>414</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>318</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>488</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>319</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>415</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>320</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>321</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>489</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>322</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>323</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>418</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>324</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>419</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>325</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>420</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>326</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>421</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>327</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>490</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>328</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>329</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>492</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>330</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>331</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>436</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>332</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>445</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>333</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>493</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>334</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>494</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>335</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>422</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>336</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>423</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>337</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>424</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>338</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>425</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>339</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>426</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>340</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>495</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>341</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>496</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>342</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>497</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>343</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>498</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>344</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>499</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>345</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>500</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>346</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>501</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>347</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>446</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>348</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>349</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>503</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>350</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>504</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>351</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>505</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>352</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>506</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>353</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>447</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>354</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>462</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>355</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>461</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>356</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>460</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>357</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>448</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>358</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>459</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>359</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>360</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>457</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>361</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>456</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>362</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>449</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>363</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>455</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>364</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>427</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>365</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>428</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>366</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>429</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>367</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>454</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>368</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>453</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>369</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>452</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>370</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>450</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>371</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>451</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>372</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -8335,7 +8335,7 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>510</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>511</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>437</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>438</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>439</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8450,7 +8450,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>440</v>
@@ -8462,13 +8462,13 @@
         <v>513</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>527</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8476,22 +8476,22 @@
         <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8499,16 +8499,16 @@
         <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8516,16 +8516,16 @@
         <v>382</v>
       </c>
       <c r="B4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -8533,16 +8533,16 @@
         <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -8550,16 +8550,16 @@
         <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8567,16 +8567,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -8603,13 +8603,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>40</v>
@@ -8620,13 +8620,13 @@
         <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C2" t="s">
         <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8634,13 +8634,13 @@
         <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C3" t="s">
         <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8648,13 +8648,13 @@
         <v>382</v>
       </c>
       <c r="B4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C4" t="s">
         <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8662,13 +8662,13 @@
         <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C5" t="s">
         <v>532</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8676,13 +8676,13 @@
         <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C6" t="s">
         <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8690,13 +8690,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C7" t="s">
         <v>532</v>
       </c>
       <c r="D7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -8724,10 +8724,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>440</v>
@@ -8739,7 +8739,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8770,7 +8770,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -8806,7 +8806,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8822,7 +8822,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>120</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>

--- a/tests/integration_test_files/amendment_1.xlsx
+++ b/tests/integration_test_files/amendment_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B2607B-BF94-8149-9B3A-5F16C1A28CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950C989-B85D-0443-8816-BD80B96B21E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="5" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -453,12 +453,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -2672,6 +2666,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -3174,10 +3174,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3286,186 +3286,186 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C17" t="s">
+        <v>514</v>
+      </c>
+      <c r="D17" t="s">
         <v>515</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="C17" t="s">
-        <v>516</v>
-      </c>
-      <c r="D17" t="s">
-        <v>517</v>
-      </c>
       <c r="E17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" t="s">
         <v>519</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="C18" t="s">
-        <v>520</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>521</v>
-      </c>
-      <c r="E18" t="s">
-        <v>523</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" t="s">
         <v>519</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="C19" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>521</v>
-      </c>
-      <c r="E19" t="s">
-        <v>523</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D20" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" t="s">
         <v>521</v>
-      </c>
-      <c r="E20" t="s">
-        <v>523</v>
       </c>
       <c r="F20" s="24">
         <v>44988</v>
       </c>
       <c r="G20" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C21" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D21" t="s">
+        <v>519</v>
+      </c>
+      <c r="E21" t="s">
         <v>521</v>
-      </c>
-      <c r="E21" t="s">
-        <v>523</v>
       </c>
       <c r="F21" s="24">
         <v>44988</v>
       </c>
       <c r="G21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D22" t="s">
+        <v>519</v>
+      </c>
+      <c r="E22" t="s">
         <v>521</v>
-      </c>
-      <c r="E22" t="s">
-        <v>523</v>
       </c>
       <c r="F22" s="24">
         <v>44988</v>
       </c>
       <c r="G22" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D23" t="s">
+        <v>519</v>
+      </c>
+      <c r="E23" t="s">
         <v>521</v>
-      </c>
-      <c r="E23" t="s">
-        <v>523</v>
       </c>
       <c r="F23" s="24">
         <v>44988</v>
       </c>
       <c r="G23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -3495,36 +3495,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>41</v>
@@ -3533,30 +3533,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3565,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3577,46 +3577,46 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3628,7 +3628,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3650,22 +3650,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3751,135 +3751,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H2" t="s">
         <v>626</v>
-      </c>
-      <c r="E2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F2" t="s">
-        <v>605</v>
-      </c>
-      <c r="G2" t="s">
-        <v>627</v>
-      </c>
-      <c r="H2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" t="s">
         <v>629</v>
       </c>
-      <c r="B3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C3" t="s">
-        <v>631</v>
-      </c>
       <c r="D3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" t="s">
         <v>633</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G4" t="s">
         <v>634</v>
-      </c>
-      <c r="C4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D4" t="s">
-        <v>635</v>
-      </c>
-      <c r="E4" t="s">
-        <v>606</v>
-      </c>
-      <c r="F4" t="s">
-        <v>606</v>
-      </c>
-      <c r="G4" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D5" t="s">
         <v>637</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G5" t="s">
         <v>638</v>
       </c>
-      <c r="C5" t="s">
-        <v>611</v>
-      </c>
-      <c r="D5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F5" t="s">
-        <v>606</v>
-      </c>
-      <c r="G5" t="s">
-        <v>640</v>
-      </c>
       <c r="H5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3887,31 +3887,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G6" t="s">
         <v>641</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>626</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="C6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" t="s">
-        <v>639</v>
-      </c>
-      <c r="E6" t="s">
-        <v>608</v>
-      </c>
-      <c r="F6" t="s">
-        <v>606</v>
-      </c>
-      <c r="G6" t="s">
-        <v>643</v>
-      </c>
-      <c r="H6" t="s">
-        <v>628</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -3938,16 +3938,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3963,13 +3963,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4015,61 +4015,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>569</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4077,58 +4077,58 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" t="s">
         <v>572</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>574</v>
       </c>
-      <c r="E2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" t="s">
         <v>575</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>576</v>
       </c>
-      <c r="H2" t="s">
-        <v>646</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>577</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>578</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>579</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>580</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>581</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>582</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" t="s">
         <v>583</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="27" t="s">
         <v>584</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R2" t="s">
-        <v>585</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4136,58 +4136,58 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I3" t="s">
         <v>575</v>
       </c>
-      <c r="G3" t="s">
-        <v>576</v>
-      </c>
-      <c r="H3" t="s">
-        <v>647</v>
-      </c>
-      <c r="I3" t="s">
-        <v>577</v>
-      </c>
       <c r="J3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K3" t="s">
+        <v>588</v>
+      </c>
+      <c r="L3" t="s">
         <v>589</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>579</v>
+      </c>
+      <c r="N3" t="s">
+        <v>580</v>
+      </c>
+      <c r="O3" t="s">
+        <v>581</v>
+      </c>
+      <c r="P3" t="s">
         <v>590</v>
       </c>
-      <c r="L3" t="s">
-        <v>591</v>
-      </c>
-      <c r="M3" t="s">
-        <v>581</v>
-      </c>
-      <c r="N3" t="s">
-        <v>582</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>151</v>
-      </c>
-      <c r="R3" t="s">
-        <v>585</v>
-      </c>
       <c r="S3" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -4212,13 +4212,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>42</v>
@@ -4229,10 +4229,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>43</v>
@@ -4243,10 +4243,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>44</v>
@@ -4278,25 +4278,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>46</v>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4321,24 +4321,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" t="s">
         <v>598</v>
       </c>
-      <c r="B4" t="s">
-        <v>600</v>
-      </c>
       <c r="G4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4376,10 +4376,10 @@
         <v>48</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>49</v>
@@ -4391,13 +4391,13 @@
         <v>50</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>549</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>551</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>51</v>
@@ -4413,7 +4413,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>77</v>
@@ -4437,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>78</v>
@@ -4943,7 +4943,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>90</v>
@@ -4961,7 +4961,7 @@
         <v>91</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E2" t="s">
         <v>95</v>
@@ -4993,7 +4993,7 @@
         <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5001,7 +5001,7 @@
         <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
         <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E5" t="s">
         <v>128</v>
@@ -5041,7 +5041,7 @@
         <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -5073,62 +5073,62 @@
         <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>150</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5164,134 +5164,134 @@
         <v>68</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5322,169 +5322,169 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>529</v>
-      </c>
       <c r="H1" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>533</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -5514,101 +5514,101 @@
         <v>68</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5637,2672 +5637,2672 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>699</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>833</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>833</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B134" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8327,55 +8327,55 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8450,116 +8450,116 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8567,16 +8567,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -8603,13 +8603,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>651</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>653</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>40</v>
@@ -8617,72 +8617,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
         <v>658</v>
-      </c>
-      <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8690,13 +8690,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -8708,8 +8708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EEE72-904E-5840-AC35-E8F034077FC1}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8724,22 +8724,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8756,10 +8756,10 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>861</v>
       </c>
       <c r="F2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8770,16 +8770,16 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>860</v>
       </c>
       <c r="F3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -8806,7 +8806,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8822,7 +8822,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -8847,10 +8847,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -8858,10 +8858,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -8872,7 +8872,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -8883,7 +8883,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>120</v>
@@ -8935,10 +8935,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -9006,16 +9006,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9023,16 +9023,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9086,19 +9086,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9106,16 +9106,16 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9126,13 +9126,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9160,13 +9160,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9174,10 +9174,10 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9185,10 +9185,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9196,10 +9196,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9207,10 +9207,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
